--- a/data/WHO_Tumors/intermediate/df_5th_edition_manual_edit.xlsx
+++ b/data/WHO_Tumors/intermediate/df_5th_edition_manual_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lahiria/Desktop/MTP_Paper/CT-Embedding-Paper/data/WHO_Tumors/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103CEC13-65A2-D944-A927-371DAF4D2C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF668A5-D802-BE48-B030-C5820CCCE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3120" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10946" uniqueCount="2609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10894" uniqueCount="2717">
   <si>
     <t>Tumor_Names</t>
   </si>
@@ -7849,6 +7849,330 @@
   </si>
   <si>
     <t>malignant tumours of the ciliary body pigment epithelium</t>
+  </si>
+  <si>
+    <t>benign tumours of the retinal pigment epithelium</t>
+  </si>
+  <si>
+    <t>malignant tumours of the retinal pigment epithelium</t>
+  </si>
+  <si>
+    <t>precursor squamous lesions</t>
+  </si>
+  <si>
+    <t>benign mesothelial tumours</t>
+  </si>
+  <si>
+    <t>preinvasive mesothelial tumours</t>
+  </si>
+  <si>
+    <t>benign epithelial tumours of the eyelid</t>
+  </si>
+  <si>
+    <t>premalignant epithelial tumours of the eyelid</t>
+  </si>
+  <si>
+    <t>benign epithelial tumours of the lacrimal drainage system</t>
+  </si>
+  <si>
+    <t>premalignant epithelial tumours of the lacrimal drainage system</t>
+  </si>
+  <si>
+    <t>benign epithelial tumours of the lacrimal gland</t>
+  </si>
+  <si>
+    <t>premalignant epithelial tumours of the lacrimal gland</t>
+  </si>
+  <si>
+    <t>benign melanocytic eyelid tumours</t>
+  </si>
+  <si>
+    <t>premalignant melanocytic eyelid tumours</t>
+  </si>
+  <si>
+    <t>benign apocrine tumours</t>
+  </si>
+  <si>
+    <t>benign eccrine tumours</t>
+  </si>
+  <si>
+    <t>benign lesions of the iris</t>
+  </si>
+  <si>
+    <t>benign hamartomas of the iris</t>
+  </si>
+  <si>
+    <t>benign maxillofacial bone tumours</t>
+  </si>
+  <si>
+    <t>benign maxillofacial cartilage tumours</t>
+  </si>
+  <si>
+    <t>benign melanocytic lesions of the choroid</t>
+  </si>
+  <si>
+    <t>benign melanocytic lesions of the ciliary body</t>
+  </si>
+  <si>
+    <t>benign pericytic neoplasms</t>
+  </si>
+  <si>
+    <t>benign perivascular neoplasms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue naevi </t>
+  </si>
+  <si>
+    <t>melanocytoses</t>
+  </si>
+  <si>
+    <t>cartilage tumours</t>
+  </si>
+  <si>
+    <t>carcinomas metastatic to the peritoneum</t>
+  </si>
+  <si>
+    <t>sarcomas metastatic to the peritoneum</t>
+  </si>
+  <si>
+    <t>lipomatous hypertrophy of the atrial septum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiac lipoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">choristomas </t>
+  </si>
+  <si>
+    <t>cysts</t>
+  </si>
+  <si>
+    <t>choroidal melanomas</t>
+  </si>
+  <si>
+    <t>ciliary body melanomas</t>
+  </si>
+  <si>
+    <t>choroidal naevi</t>
+  </si>
+  <si>
+    <t>ciliary body naevi</t>
+  </si>
+  <si>
+    <t>ciliary body tumours</t>
+  </si>
+  <si>
+    <t>choroid tumours</t>
+  </si>
+  <si>
+    <t>circumscribed meningeal melanocytic neoplasms: melanocytoma</t>
+  </si>
+  <si>
+    <t>circumscribed meningeal melanocytic neoplasms: melanoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear cell cystadenoma </t>
+  </si>
+  <si>
+    <t>clear cell adenofibroma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colorectal serrated lesions </t>
+  </si>
+  <si>
+    <t>colorectal serrated polyps</t>
+  </si>
+  <si>
+    <t>congenital non-progressive haemangiomas: rapidly involuting congenital haemangioma</t>
+  </si>
+  <si>
+    <t>congenital non-progressive haemangiomas: non-involuting congenital haemangioma</t>
+  </si>
+  <si>
+    <t>conjunctival stromal tumour</t>
+  </si>
+  <si>
+    <t>ocular surface fibroma</t>
+  </si>
+  <si>
+    <t>cranial nerve tumours</t>
+  </si>
+  <si>
+    <t>paraspinal nerve tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cutaneous b-cell lymphoproliferative disorders </t>
+  </si>
+  <si>
+    <t>cutaneous b-cell lymphoproliferative neoplasms</t>
+  </si>
+  <si>
+    <t>cutaneous involvement in primarily extracutaneous b-cell lymphomas</t>
+  </si>
+  <si>
+    <t>cutaneous involvement in primarily extracutaneous b-cell leukaemias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cutaneous t-cell lymphoproliferative disorders </t>
+  </si>
+  <si>
+    <t>cutaneous t-cell neoplasms</t>
+  </si>
+  <si>
+    <t>cutaneous nk-cell lymphoproliferative disorders and neoplasms</t>
+  </si>
+  <si>
+    <t>cutaneous t-cell lymphoproliferative disorders and neoplasms</t>
+  </si>
+  <si>
+    <t>cutaneous nk-cell lymphoproliferative disorders</t>
+  </si>
+  <si>
+    <t>cutaneous nk-cell neoplasms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysts </t>
+  </si>
+  <si>
+    <t>cyst-like lesions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysts of the conjunctiva </t>
+  </si>
+  <si>
+    <t>cysts of the caruncle</t>
+  </si>
+  <si>
+    <t>dermoid cysts</t>
+  </si>
+  <si>
+    <t>teratoid cysts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffuse choroidal neurofibroma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffuse choroidal ganglioneuroma </t>
+  </si>
+  <si>
+    <t>diffuse meningeal melanocytic neoplasms: melanocytosis</t>
+  </si>
+  <si>
+    <t>diffuse meningeal melanocytic neoplasms: melanomatosis</t>
+  </si>
+  <si>
+    <t>ebv-positive nk-cell lymphomas</t>
+  </si>
+  <si>
+    <t>ebv-positive t-cell lymphomas</t>
+  </si>
+  <si>
+    <t>ebv-positive nodal t-cell lymphoma</t>
+  </si>
+  <si>
+    <t>ebv-positive nodal nk-cell lymphoma</t>
+  </si>
+  <si>
+    <t>ebv-positive t-cell and nk-cell lymphoid proliferations of childhood</t>
+  </si>
+  <si>
+    <t>ebv-positive t-cell and nk-cell lymphomas of childhood</t>
+  </si>
+  <si>
+    <t>ebv-positive t-cell lymphoid proliferations of childhood</t>
+  </si>
+  <si>
+    <t>ebv-positive t-cell lymphomas of childhood</t>
+  </si>
+  <si>
+    <t>ebv-positive nk-cell lymphoid proliferations of childhood</t>
+  </si>
+  <si>
+    <t>ebv-positive nk-cell lymphomas of childhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ectopic meningioma </t>
+  </si>
+  <si>
+    <t>meningothelial hamartoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ectopic tumours of thyroid </t>
+  </si>
+  <si>
+    <t>ectopic tumours of parathyroid origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enchondroma </t>
+  </si>
+  <si>
+    <t>enchondromatosis</t>
+  </si>
+  <si>
+    <t>endometrioid cystadenoma</t>
+  </si>
+  <si>
+    <t>endometrioid adenofibroma</t>
+  </si>
+  <si>
+    <t>orbit tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fibro-osseous tumours </t>
+  </si>
+  <si>
+    <t>fibro-osseous dysplasias</t>
+  </si>
+  <si>
+    <t>fibroadenoma of anogenital mammary-like glands</t>
+  </si>
+  <si>
+    <t>phyllodes tumour of anogenital mammary-like glands</t>
+  </si>
+  <si>
+    <t>fibroblastic tumours</t>
+  </si>
+  <si>
+    <t>fibroepithelial tumours of the breast</t>
+  </si>
+  <si>
+    <t>hamartomas of the breast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fibromatosis </t>
+  </si>
+  <si>
+    <t>massive oedema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ganglioneuroma </t>
+  </si>
+  <si>
+    <t>ganglioneuromatosis</t>
+  </si>
+  <si>
+    <t>genital melanocytic tumours</t>
+  </si>
+  <si>
+    <t>mucosal melanocytic tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">germ cell tumours of the head </t>
+  </si>
+  <si>
+    <t>germ cell tumours of the neck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giant cell lesions </t>
+  </si>
+  <si>
+    <t>bone cysts</t>
+  </si>
+  <si>
+    <t>glandular cysts</t>
+  </si>
+  <si>
+    <t>glioneuronal tumours</t>
   </si>
 </sst>
 </file>
@@ -41712,10 +42036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A40BD13-64D2-A54D-9025-021DFD7EBC52}">
-  <dimension ref="A1:B1593"/>
+  <dimension ref="A1:B1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A647" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
-      <selection activeCell="F657" sqref="F657"/>
+    <sheetView tabSelected="1" topLeftCell="A911" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+      <selection activeCell="E914" sqref="E914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46263,7 +46587,7 @@
         <v>217</v>
       </c>
       <c r="B659" t="s">
-        <v>2084</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -46271,7 +46595,7 @@
         <v>217</v>
       </c>
       <c r="B660" t="s">
-        <v>2084</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -46287,7 +46611,7 @@
         <v>218</v>
       </c>
       <c r="B662" t="s">
-        <v>2085</v>
+        <v>204</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -46295,7 +46619,7 @@
         <v>218</v>
       </c>
       <c r="B663" t="s">
-        <v>2085</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -46311,7 +46635,7 @@
         <v>219</v>
       </c>
       <c r="B665" t="s">
-        <v>2086</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -46319,7 +46643,7 @@
         <v>219</v>
       </c>
       <c r="B666" t="s">
-        <v>2086</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -46335,7 +46659,7 @@
         <v>220</v>
       </c>
       <c r="B668" t="s">
-        <v>2087</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -46343,7 +46667,7 @@
         <v>220</v>
       </c>
       <c r="B669" t="s">
-        <v>2087</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -46359,7 +46683,7 @@
         <v>221</v>
       </c>
       <c r="B671" t="s">
-        <v>2088</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -46367,7 +46691,7 @@
         <v>221</v>
       </c>
       <c r="B672" t="s">
-        <v>2088</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -46383,7 +46707,7 @@
         <v>222</v>
       </c>
       <c r="B674" t="s">
-        <v>2089</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -46391,7 +46715,7 @@
         <v>222</v>
       </c>
       <c r="B675" t="s">
-        <v>2089</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -46407,7 +46731,7 @@
         <v>223</v>
       </c>
       <c r="B677" t="s">
-        <v>2090</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -46415,7 +46739,7 @@
         <v>223</v>
       </c>
       <c r="B678" t="s">
-        <v>2090</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -46431,7 +46755,7 @@
         <v>224</v>
       </c>
       <c r="B680" t="s">
-        <v>2091</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -46439,7 +46763,7 @@
         <v>224</v>
       </c>
       <c r="B681" t="s">
-        <v>2091</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -46450,22 +46774,6 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A683">
-        <v>225</v>
-      </c>
-      <c r="B683" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A684">
-        <v>225</v>
-      </c>
-      <c r="B684" t="s">
-        <v>2092</v>
-      </c>
-    </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>226</v>
@@ -46474,22 +46782,6 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A686">
-        <v>226</v>
-      </c>
-      <c r="B686" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A687">
-        <v>226</v>
-      </c>
-      <c r="B687" t="s">
-        <v>2093</v>
-      </c>
-    </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>227</v>
@@ -46498,22 +46790,6 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A689">
-        <v>227</v>
-      </c>
-      <c r="B689" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A690">
-        <v>227</v>
-      </c>
-      <c r="B690" t="s">
-        <v>2094</v>
-      </c>
-    </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>228</v>
@@ -46522,22 +46798,6 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A692">
-        <v>228</v>
-      </c>
-      <c r="B692" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A693">
-        <v>228</v>
-      </c>
-      <c r="B693" t="s">
-        <v>2095</v>
-      </c>
-    </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>229</v>
@@ -46551,7 +46811,7 @@
         <v>229</v>
       </c>
       <c r="B695" t="s">
-        <v>2096</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -46559,7 +46819,7 @@
         <v>229</v>
       </c>
       <c r="B696" t="s">
-        <v>2096</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -46575,7 +46835,7 @@
         <v>230</v>
       </c>
       <c r="B698" t="s">
-        <v>2097</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -46583,7 +46843,7 @@
         <v>230</v>
       </c>
       <c r="B699" t="s">
-        <v>2097</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -46599,7 +46859,7 @@
         <v>231</v>
       </c>
       <c r="B701" t="s">
-        <v>2098</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
@@ -46607,7 +46867,7 @@
         <v>231</v>
       </c>
       <c r="B702" t="s">
-        <v>2098</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -46618,22 +46878,6 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A704">
-        <v>232</v>
-      </c>
-      <c r="B704" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A705">
-        <v>232</v>
-      </c>
-      <c r="B705" t="s">
-        <v>2099</v>
-      </c>
-    </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>233</v>
@@ -46647,7 +46891,7 @@
         <v>233</v>
       </c>
       <c r="B707" t="s">
-        <v>2100</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
@@ -46655,7 +46899,7 @@
         <v>233</v>
       </c>
       <c r="B708" t="s">
-        <v>2100</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -46671,7 +46915,7 @@
         <v>234</v>
       </c>
       <c r="B710" t="s">
-        <v>2101</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -46679,7 +46923,7 @@
         <v>234</v>
       </c>
       <c r="B711" t="s">
-        <v>2101</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -46690,22 +46934,6 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A713">
-        <v>235</v>
-      </c>
-      <c r="B713" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A714">
-        <v>235</v>
-      </c>
-      <c r="B714" t="s">
-        <v>2102</v>
-      </c>
-    </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>236</v>
@@ -46719,7 +46947,7 @@
         <v>236</v>
       </c>
       <c r="B716" t="s">
-        <v>2103</v>
+        <v>220</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
@@ -46727,7 +46955,7 @@
         <v>236</v>
       </c>
       <c r="B717" t="s">
-        <v>2103</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -46738,22 +46966,6 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A719">
-        <v>237</v>
-      </c>
-      <c r="B719" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A720">
-        <v>237</v>
-      </c>
-      <c r="B720" t="s">
-        <v>2104</v>
-      </c>
-    </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>238</v>
@@ -46767,7 +46979,7 @@
         <v>238</v>
       </c>
       <c r="B722" t="s">
-        <v>2105</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
@@ -46775,7 +46987,7 @@
         <v>238</v>
       </c>
       <c r="B723" t="s">
-        <v>2105</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
@@ -46786,22 +46998,6 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A725">
-        <v>239</v>
-      </c>
-      <c r="B725" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A726">
-        <v>239</v>
-      </c>
-      <c r="B726" t="s">
-        <v>2106</v>
-      </c>
-    </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>240</v>
@@ -46810,22 +47006,6 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A728">
-        <v>240</v>
-      </c>
-      <c r="B728" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A729">
-        <v>240</v>
-      </c>
-      <c r="B729" t="s">
-        <v>2107</v>
-      </c>
-    </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>241</v>
@@ -46839,7 +47019,7 @@
         <v>241</v>
       </c>
       <c r="B731" t="s">
-        <v>2108</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -46847,7 +47027,7 @@
         <v>241</v>
       </c>
       <c r="B732" t="s">
-        <v>2108</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -46863,7 +47043,7 @@
         <v>242</v>
       </c>
       <c r="B734" t="s">
-        <v>2109</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
@@ -46871,7 +47051,7 @@
         <v>242</v>
       </c>
       <c r="B735" t="s">
-        <v>2109</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
@@ -46887,7 +47067,7 @@
         <v>243</v>
       </c>
       <c r="B737" t="s">
-        <v>2110</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
@@ -46895,7 +47075,7 @@
         <v>243</v>
       </c>
       <c r="B738" t="s">
-        <v>2110</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -46911,7 +47091,7 @@
         <v>244</v>
       </c>
       <c r="B740" t="s">
-        <v>2111</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -46919,7 +47099,7 @@
         <v>244</v>
       </c>
       <c r="B741" t="s">
-        <v>2111</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
@@ -46935,7 +47115,7 @@
         <v>245</v>
       </c>
       <c r="B743" t="s">
-        <v>2112</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
@@ -46943,7 +47123,7 @@
         <v>245</v>
       </c>
       <c r="B744" t="s">
-        <v>2112</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
@@ -46959,7 +47139,7 @@
         <v>246</v>
       </c>
       <c r="B746" t="s">
-        <v>2113</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
@@ -46967,7 +47147,7 @@
         <v>246</v>
       </c>
       <c r="B747" t="s">
-        <v>2113</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
@@ -46983,7 +47163,7 @@
         <v>247</v>
       </c>
       <c r="B749" t="s">
-        <v>2114</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
@@ -46991,7 +47171,7 @@
         <v>247</v>
       </c>
       <c r="B750" t="s">
-        <v>2114</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
@@ -47002,22 +47182,6 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A752">
-        <v>248</v>
-      </c>
-      <c r="B752" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A753">
-        <v>248</v>
-      </c>
-      <c r="B753" t="s">
-        <v>2115</v>
-      </c>
-    </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>249</v>
@@ -47031,7 +47195,7 @@
         <v>249</v>
       </c>
       <c r="B755" t="s">
-        <v>2116</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
@@ -47039,7 +47203,7 @@
         <v>249</v>
       </c>
       <c r="B756" t="s">
-        <v>2116</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
@@ -47050,22 +47214,6 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A758">
-        <v>250</v>
-      </c>
-      <c r="B758" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A759">
-        <v>250</v>
-      </c>
-      <c r="B759" t="s">
-        <v>2117</v>
-      </c>
-    </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>251</v>
@@ -47079,7 +47227,7 @@
         <v>251</v>
       </c>
       <c r="B761" t="s">
-        <v>2118</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
@@ -47087,7 +47235,7 @@
         <v>251</v>
       </c>
       <c r="B762" t="s">
-        <v>2118</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
@@ -47103,7 +47251,7 @@
         <v>252</v>
       </c>
       <c r="B764" t="s">
-        <v>2119</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
@@ -47111,7 +47259,7 @@
         <v>252</v>
       </c>
       <c r="B765" t="s">
-        <v>2119</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
@@ -47122,22 +47270,6 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A767">
-        <v>253</v>
-      </c>
-      <c r="B767" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A768">
-        <v>253</v>
-      </c>
-      <c r="B768" t="s">
-        <v>2120</v>
-      </c>
-    </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>254</v>
@@ -47151,7 +47283,7 @@
         <v>254</v>
       </c>
       <c r="B770" t="s">
-        <v>2121</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
@@ -47159,7 +47291,7 @@
         <v>254</v>
       </c>
       <c r="B771" t="s">
-        <v>2121</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
@@ -47175,7 +47307,7 @@
         <v>255</v>
       </c>
       <c r="B773" t="s">
-        <v>2122</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -47183,7 +47315,7 @@
         <v>255</v>
       </c>
       <c r="B774" t="s">
-        <v>2122</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -47199,7 +47331,7 @@
         <v>256</v>
       </c>
       <c r="B776" t="s">
-        <v>2123</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
@@ -47207,7 +47339,7 @@
         <v>256</v>
       </c>
       <c r="B777" t="s">
-        <v>2123</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
@@ -47223,7 +47355,7 @@
         <v>257</v>
       </c>
       <c r="B779" t="s">
-        <v>2124</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
@@ -47231,6516 +47363,6292 @@
         <v>257</v>
       </c>
       <c r="B780" t="s">
-        <v>2124</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B781" t="s">
-        <v>2125</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B782" t="s">
-        <v>2125</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B783" t="s">
-        <v>2125</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B784" t="s">
-        <v>2126</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B785" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A786">
-        <v>259</v>
-      </c>
-      <c r="B786" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A787">
-        <v>260</v>
-      </c>
-      <c r="B787" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B788" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B789" t="s">
-        <v>2127</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B790" t="s">
-        <v>2128</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B791" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B792" t="s">
-        <v>2128</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B793" t="s">
-        <v>2129</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B794" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A795">
-        <v>262</v>
-      </c>
-      <c r="B795" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A796">
-        <v>263</v>
-      </c>
-      <c r="B796" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B797" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B798" t="s">
-        <v>2130</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B799" t="s">
-        <v>2131</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B800" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B801" t="s">
-        <v>2131</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B802" t="s">
-        <v>2132</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B803" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A804">
-        <v>265</v>
-      </c>
-      <c r="B804" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A805">
-        <v>266</v>
-      </c>
-      <c r="B805" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B806" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B807" t="s">
-        <v>2133</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B808" t="s">
-        <v>2134</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B809" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B810" t="s">
-        <v>2134</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B811" t="s">
-        <v>2135</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B812" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B813" t="s">
-        <v>2135</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B814" t="s">
-        <v>2136</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B815" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B816" t="s">
-        <v>2136</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B817" t="s">
-        <v>2137</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B818" t="s">
-        <v>2137</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B819" t="s">
-        <v>2137</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B820" t="s">
-        <v>2138</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B821" t="s">
-        <v>2138</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B822" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B823" t="s">
-        <v>2139</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B824" t="s">
-        <v>2139</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B825" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B826" t="s">
-        <v>2140</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B827" t="s">
-        <v>2140</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B828" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B829" t="s">
-        <v>2141</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B830" t="s">
-        <v>2141</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B831" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B832" t="s">
-        <v>2142</v>
+        <v>477</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B833" t="s">
-        <v>2142</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B834" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A835">
-        <v>276</v>
-      </c>
-      <c r="B835" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A836">
-        <v>276</v>
-      </c>
-      <c r="B836" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B837" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A838">
-        <v>277</v>
-      </c>
-      <c r="B838" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A839">
-        <v>277</v>
-      </c>
-      <c r="B839" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B840" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A841">
-        <v>278</v>
-      </c>
-      <c r="B841" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A842">
-        <v>278</v>
-      </c>
-      <c r="B842" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B843" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B844" t="s">
-        <v>2146</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B845" t="s">
-        <v>2146</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B846" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A847">
-        <v>280</v>
-      </c>
-      <c r="B847" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A848">
-        <v>280</v>
-      </c>
-      <c r="B848" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B849" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A850">
-        <v>281</v>
-      </c>
-      <c r="B850" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A851">
-        <v>281</v>
-      </c>
-      <c r="B851" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B852" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A853">
-        <v>282</v>
-      </c>
-      <c r="B853" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A854">
-        <v>282</v>
-      </c>
-      <c r="B854" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B855" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B856" t="s">
-        <v>2150</v>
+        <v>551</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B857" t="s">
-        <v>2150</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B858" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B859" t="s">
-        <v>2151</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B860" t="s">
-        <v>2151</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B861" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B862" t="s">
-        <v>2152</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B863" t="s">
-        <v>2152</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B864" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B865" t="s">
-        <v>2153</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B866" t="s">
-        <v>2153</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B867" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B868" t="s">
-        <v>2154</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B869" t="s">
-        <v>2154</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B870" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B871" t="s">
-        <v>2155</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B872" t="s">
-        <v>2155</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B873" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A874">
-        <v>289</v>
-      </c>
-      <c r="B874" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A875">
-        <v>289</v>
-      </c>
-      <c r="B875" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B876" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B877" t="s">
-        <v>2157</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B878" t="s">
-        <v>2157</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B879" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A880">
-        <v>291</v>
-      </c>
-      <c r="B880" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A881">
-        <v>291</v>
-      </c>
-      <c r="B881" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B882" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A883">
-        <v>292</v>
-      </c>
-      <c r="B883" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A884">
-        <v>292</v>
-      </c>
-      <c r="B884" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B885" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B886" t="s">
-        <v>2160</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B887" t="s">
-        <v>2160</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B888" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B889" t="s">
-        <v>2161</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B890" t="s">
-        <v>2161</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B891" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B892" t="s">
-        <v>2162</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B893" t="s">
-        <v>2162</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B894" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A895">
-        <v>296</v>
-      </c>
-      <c r="B895" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A896">
-        <v>296</v>
-      </c>
-      <c r="B896" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B897" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A898">
-        <v>297</v>
-      </c>
-      <c r="B898" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A899">
-        <v>297</v>
-      </c>
-      <c r="B899" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B900" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A901">
-        <v>298</v>
-      </c>
-      <c r="B901" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A902">
-        <v>298</v>
-      </c>
-      <c r="B902" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B903" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A904">
-        <v>299</v>
-      </c>
-      <c r="B904" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A905">
-        <v>299</v>
-      </c>
-      <c r="B905" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B906" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A907">
-        <v>300</v>
-      </c>
-      <c r="B907" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A908">
-        <v>300</v>
-      </c>
-      <c r="B908" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B909" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B910" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B911" t="s">
-        <v>2168</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B912" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A913">
-        <v>302</v>
-      </c>
-      <c r="B913" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A914">
-        <v>302</v>
-      </c>
-      <c r="B914" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B915" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B916" t="s">
-        <v>2170</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B917" t="s">
-        <v>2170</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B918" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B919" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B920" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B921" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B922" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B923" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B924" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B925" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B926" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B927" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B928" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B929" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B930" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B931" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B932" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B933" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B934" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B935" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B936" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B937" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B938" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B939" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B940" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B941" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B942" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B943" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B944" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B945" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B946" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B947" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B948" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B949" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B950" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B951" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B952" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B953" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B954" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B955" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B956" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B957" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B958" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B959" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B960" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B961" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B962" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B963" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B964" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B965" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B966" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B967" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B968" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B969" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B970" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B971" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B972" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B973" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B974" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B975" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B976" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B977" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B978" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B979" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B980" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B981" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B982" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B983" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B984" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B985" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B986" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B987" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B988" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B989" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B990" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B991" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B992" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B993" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B994" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B995" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B996" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B997" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B998" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B999" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B1000" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B1001" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B1002" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B1003" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B1004" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1005" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B1006" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B1007" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B1008" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1009" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1010" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1011" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1012" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1013" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B1014" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B1015" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B1016" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B1017" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B1018" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B1019" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B1020" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B1021" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B1022" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B1023" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B1024" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B1025" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B1026" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B1027" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B1028" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B1029" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B1030" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B1031" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1032" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B1033" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B1034" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B1035" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B1036" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B1037" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1038" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B1039" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B1040" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1041" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B1042" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B1043" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1044" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1045" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1046" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B1047" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B1048" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B1049" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1050" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B1051" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B1052" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B1053" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B1054" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B1055" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B1056" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1057" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1058" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B1059" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B1060" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B1061" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B1062" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B1063" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B1064" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1065" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B1066" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B1067" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B1068" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B1069" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B1070" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B1071" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B1072" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B1073" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1074" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1075">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B1075" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B1076" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B1077" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B1078" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B1079" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B1080" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1081" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1082" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B1083" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B1084" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B1085" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B1086" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B1087" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B1088" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1089" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B1090" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B1091" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1092" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B1093" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B1094" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B1095" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1096" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1097" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1098" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B1099" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B1100" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1101" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B1102" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B1103" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1104" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B1105" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B1106" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B1107" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1108" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1109" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1110" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1111">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1111" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1112" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B1113" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B1114" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B1115" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B1116" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B1117" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B1118" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1119" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B1120" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B1121" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1122" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B1123" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B1124" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B1125" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B1126" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B1127" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B1128" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B1129" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B1130" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1131" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B1132" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B1133" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B1134" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B1135" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B1136" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B1137" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B1138" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B1139" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1140" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B1141" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B1142" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1143" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1144" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1145" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1146" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1147" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1148" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1149" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B1150" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B1151" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B1152" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B1153" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B1154" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B1155" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B1156" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B1157" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1158" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1159" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1160" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B1161" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B1162" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B1163" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1164" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B1165" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B1166" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B1167" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B1168" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B1169" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B1170" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B1171" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B1172" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B1173" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B1174" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B1175" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1176" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B1177" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B1178" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1179" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1180" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1181" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B1182" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1183" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1184" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1185" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B1186" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B1187" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1188" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1189" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1190" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B1191" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1192" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1193" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B1194" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1195" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1196" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B1197" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B1198" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B1199" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B1200" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B1201" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B1202" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B1203" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B1204" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B1205" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B1206" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B1207" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B1208" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B1209" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B1210" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B1211" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B1212" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B1213" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B1214" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B1215" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B1216" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B1217" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B1218" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B1219" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B1220" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B1221" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B1222" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B1223" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B1224" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B1225" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B1226" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1227" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1228" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1229" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B1230" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B1231" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B1232" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B1233" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B1234" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B1235" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1236" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B1237" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B1238" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B1239" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B1240" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B1241" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1242" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1243" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1244" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B1245" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B1246" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B1247" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B1248" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B1249" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B1250" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B1251" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1252" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1253" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B1254" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1255" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1256" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B1257" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B1258" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B1259" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B1260" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B1261" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B1262" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B1263" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B1264" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B1265" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B1266" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B1267" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B1268" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B1269" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B1270" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B1271" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B1272" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B1273" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B1274" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1275" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1276" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1277" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B1278" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1279">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B1279" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B1280" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B1281" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B1282" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B1283" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1284" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B1285" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B1286" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B1287" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B1288" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B1289" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B1290" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B1291" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B1292" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B1293" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B1294" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B1295" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B1296" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B1297" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B1298" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B1299" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B1300" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B1301" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B1302" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B1303" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B1304" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B1305" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1306" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1307" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B1308" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1309" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1310" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B1311" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B1312" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B1313" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B1314" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B1315" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B1316" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B1317" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1318" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1319" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B1320" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B1321" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B1322" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B1323" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B1324" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B1325" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B1326" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1327" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1328" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1329" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B1330" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B1331" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B1332" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B1333" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B1334" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1335" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B1336" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B1337" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1338" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B1339" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B1340" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1341" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B1342" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B1343" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1344" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B1345" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B1346" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B1347" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1348" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1349" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1350" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1351" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1352" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1353" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B1354" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B1355" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B1356" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B1357" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B1358" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1359" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1360" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1361" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1362" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1363" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1364" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B1365" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B1366" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B1367" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B1368" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B1369" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B1370" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B1371" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B1372" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B1373" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B1374" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B1375" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B1376" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B1377" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B1378" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B1379" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B1380" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B1381" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B1382" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1383" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1384" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1385" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B1386" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B1387" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B1388" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1389" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B1390" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B1391" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B1392" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B1393" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B1394" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B1395" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1396" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1397" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B1398" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B1399" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B1400" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1401" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B1402" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B1403" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1404" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1405" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1406" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B1407" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B1408" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B1409" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1410" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B1411" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B1412" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B1413" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1414" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1415" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B1416" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B1417" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B1418" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B1419" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B1420" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B1421" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1422" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B1423" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B1424" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B1425" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B1426" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B1427" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1428" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B1429" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B1430" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B1431" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B1432" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B1433" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1434" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B1435" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B1436" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B1437" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B1438" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B1439" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1440" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B1441" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B1442" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B1443" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B1444" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B1445" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B1446" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B1447" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B1448" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B1449" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1450" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1451" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B1452" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B1453" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B1454" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1455" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B1456" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B1457" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1458" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1459" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1460" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B1461" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B1462" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B1463" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B1464" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1465" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1466" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1467" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B1468" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B1469" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B1470" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B1471" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B1472" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1473" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B1474" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B1475" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1476">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B1476" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B1477" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1478">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B1478" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B1479" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B1480" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B1481" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B1482" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B1483" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B1484" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B1485" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B1486" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B1487" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1488" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B1489" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B1490" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B1491" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1492" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1493" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B1494" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B1495" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B1496" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B1497" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B1498" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B1499" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B1500" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B1501" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B1502" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1503" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B1504" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B1505" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1506" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B1507" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B1508" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1509" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B1510" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B1511" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1512" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B1513" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B1514" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1515" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B1516" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B1517" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B1518" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B1519" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B1520" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B1521" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B1522" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B1523" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1524" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B1525" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1526">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B1526" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B1527" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B1528" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B1529" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B1530" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B1531" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B1532" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1533">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B1533" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B1534" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B1535" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B1536" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B1537" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B1538" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B1539" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B1540" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B1541" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1542" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B1543" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B1544" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B1545" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B1546" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B1547" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1548" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1549">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1549" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1550" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B1551" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B1552" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B1553" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B1554" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1555">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B1555" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B1556" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B1557" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B1558" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B1559" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1560" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B1561" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B1562" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B1563" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B1564" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B1565" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B1566" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B1567" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B1568" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B1569" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B1570" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B1571" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B1572" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B1573" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B1574" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B1575" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B1576" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B1577" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1578" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B1579" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B1580" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B1581" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B1582" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B1583" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B1584" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B1585" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B1586" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B1587" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B1588" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B1589" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1590">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B1590" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B1591" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1592">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B1592" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1593">
+        <v>526</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1594">
+        <v>526</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1595">
+        <v>526</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1596">
+        <v>527</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1597">
+        <v>527</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1598">
+        <v>527</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1599">
         <v>528</v>
       </c>
-      <c r="B1593" t="s">
+      <c r="B1599" t="s">
         <v>2395</v>
       </c>
     </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1600">
+        <v>528</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1601">
+        <v>528</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>2395</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1593">
-    <sortCondition ref="A2:A1593"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1601">
+    <sortCondition ref="A2:A1601"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/WHO_Tumors/intermediate/df_5th_edition_manual_edit.xlsx
+++ b/data/WHO_Tumors/intermediate/df_5th_edition_manual_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lahiria/Desktop/MTP_Paper/CT-Embedding-Paper/data/WHO_Tumors/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF668A5-D802-BE48-B030-C5820CCCE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979E4239-98F0-8343-8AC3-CDA83641F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3120" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10894" uniqueCount="2717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10892" uniqueCount="2763">
   <si>
     <t>Tumor_Names</t>
   </si>
@@ -8173,6 +8173,144 @@
   </si>
   <si>
     <t>glioneuronal tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glomangioma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">glomus tumour </t>
+  </si>
+  <si>
+    <t>glomuvenous malformation</t>
+  </si>
+  <si>
+    <t>vascular malformations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haematolymphoid proliferations </t>
+  </si>
+  <si>
+    <t>haematolymphoid neoplasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haematolymphoid tumours of the pleura </t>
+  </si>
+  <si>
+    <t>haematolymphoid tumours of the pericardium</t>
+  </si>
+  <si>
+    <t>head paraganglioma</t>
+  </si>
+  <si>
+    <t>neck paraganglioma</t>
+  </si>
+  <si>
+    <t>head tumours</t>
+  </si>
+  <si>
+    <t>neck tumours</t>
+  </si>
+  <si>
+    <t>dendritic cell tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inborn error of immunity-associated lymphoid proliferations </t>
+  </si>
+  <si>
+    <t>inborn error of immunity-associated lymphomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intercalated duct adenoma </t>
+  </si>
+  <si>
+    <t>intercalated duct hyperplasia</t>
+  </si>
+  <si>
+    <t>intestinal t-cell and nk-cell lymphoid proliferations</t>
+  </si>
+  <si>
+    <t>intestinal t-cell and nk-cell lymphomas</t>
+  </si>
+  <si>
+    <t>intestinal t-cell lymphoid proliferations</t>
+  </si>
+  <si>
+    <t>intestinal nk-cell lymphoid proliferations</t>
+  </si>
+  <si>
+    <t>intestinal t-cell lymphomas</t>
+  </si>
+  <si>
+    <t>intestinal nk-cell lymphomas</t>
+  </si>
+  <si>
+    <t>invasive hydatidiform moles</t>
+  </si>
+  <si>
+    <t>metastatic hydatidiform moles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invasive epithelial tumours of the penis </t>
+  </si>
+  <si>
+    <t>invasive epithelial tumours of the scrotum</t>
+  </si>
+  <si>
+    <t>laryngeal epithelial dysplasia</t>
+  </si>
+  <si>
+    <t>hypopharyngeal epithelial dysplasia</t>
+  </si>
+  <si>
+    <t>lateral periodontal cyst</t>
+  </si>
+  <si>
+    <t>botryoid odontogenic cyst</t>
+  </si>
+  <si>
+    <t>leiomyoma of the broad ligament</t>
+  </si>
+  <si>
+    <t>leiomyoma of other uterine ligaments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leiomyosarcoma of the broad ligament </t>
+  </si>
+  <si>
+    <t>leiomyosarcoma of other uterine ligaments</t>
+  </si>
+  <si>
+    <t>lipoma of bone</t>
+  </si>
+  <si>
+    <t>hibernoma of bone</t>
+  </si>
+  <si>
+    <t>lymphangiomatosis</t>
+  </si>
+  <si>
+    <t>lymphoid proliferations associated with immune deficiency and dysregulation</t>
+  </si>
+  <si>
+    <t>lymphomas associated with immune deficiency and dysregulation</t>
+  </si>
+  <si>
+    <t>lymphoid proliferations associated with immune deficiency</t>
+  </si>
+  <si>
+    <t>lymphoid proliferations associated with immune dysregulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lymphomas associated with immune deficiency </t>
+  </si>
+  <si>
+    <t>lymphomas associated with immune dysregulation</t>
+  </si>
+  <si>
+    <t>lymphoproliferative disorders associated with immunodeficiency and dysregulation</t>
+  </si>
+  <si>
+    <t>lymphomas associated with immunodeficiency and dysregulation</t>
   </si>
 </sst>
 </file>
@@ -42036,10 +42174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A40BD13-64D2-A54D-9025-021DFD7EBC52}">
-  <dimension ref="A1:B1601"/>
+  <dimension ref="A1:B1611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A911" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
-      <selection activeCell="E914" sqref="E914"/>
+    <sheetView tabSelected="1" topLeftCell="A1000" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+      <selection activeCell="B1012" sqref="B1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48187,7 +48325,7 @@
         <v>301</v>
       </c>
       <c r="B919" t="s">
-        <v>2168</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
@@ -48195,7 +48333,7 @@
         <v>301</v>
       </c>
       <c r="B920" t="s">
-        <v>2168</v>
+        <v>640</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
@@ -48211,7 +48349,7 @@
         <v>302</v>
       </c>
       <c r="B922" t="s">
-        <v>2169</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
@@ -48219,7 +48357,7 @@
         <v>302</v>
       </c>
       <c r="B923" t="s">
-        <v>2169</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
@@ -48230,22 +48368,6 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A925">
-        <v>303</v>
-      </c>
-      <c r="B925" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A926">
-        <v>303</v>
-      </c>
-      <c r="B926" t="s">
-        <v>2170</v>
-      </c>
-    </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>304</v>
@@ -48259,7 +48381,7 @@
         <v>304</v>
       </c>
       <c r="B928" t="s">
-        <v>2171</v>
+        <v>652</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
@@ -48267,7 +48389,7 @@
         <v>304</v>
       </c>
       <c r="B929" t="s">
-        <v>2171</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
@@ -48283,7 +48405,7 @@
         <v>305</v>
       </c>
       <c r="B931" t="s">
-        <v>2172</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
@@ -48291,7 +48413,7 @@
         <v>305</v>
       </c>
       <c r="B932" t="s">
-        <v>2172</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
@@ -48307,7 +48429,7 @@
         <v>306</v>
       </c>
       <c r="B934" t="s">
-        <v>2173</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
@@ -48315,7 +48437,7 @@
         <v>306</v>
       </c>
       <c r="B935" t="s">
-        <v>2173</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
@@ -48331,7 +48453,7 @@
         <v>307</v>
       </c>
       <c r="B937" t="s">
-        <v>2174</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
@@ -48339,7 +48461,7 @@
         <v>307</v>
       </c>
       <c r="B938" t="s">
-        <v>2174</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
@@ -48355,7 +48477,7 @@
         <v>308</v>
       </c>
       <c r="B940" t="s">
-        <v>2175</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
@@ -48363,7 +48485,7 @@
         <v>308</v>
       </c>
       <c r="B941" t="s">
-        <v>2175</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
@@ -48379,7 +48501,7 @@
         <v>309</v>
       </c>
       <c r="B943" t="s">
-        <v>2176</v>
+        <v>698</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
@@ -48387,7 +48509,7 @@
         <v>309</v>
       </c>
       <c r="B944" t="s">
-        <v>2176</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
@@ -48403,7 +48525,7 @@
         <v>310</v>
       </c>
       <c r="B946" t="s">
-        <v>2177</v>
+        <v>702</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
@@ -48411,7 +48533,7 @@
         <v>310</v>
       </c>
       <c r="B947" t="s">
-        <v>2177</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
@@ -48427,7 +48549,7 @@
         <v>311</v>
       </c>
       <c r="B949" t="s">
-        <v>2178</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
@@ -48435,7 +48557,7 @@
         <v>311</v>
       </c>
       <c r="B950" t="s">
-        <v>2178</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
@@ -48451,7 +48573,7 @@
         <v>312</v>
       </c>
       <c r="B952" t="s">
-        <v>2179</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
@@ -48459,7 +48581,7 @@
         <v>312</v>
       </c>
       <c r="B953" t="s">
-        <v>2179</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
@@ -48475,7 +48597,7 @@
         <v>313</v>
       </c>
       <c r="B955" t="s">
-        <v>2180</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
@@ -48483,5172 +48605,5172 @@
         <v>313</v>
       </c>
       <c r="B956" t="s">
-        <v>2180</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B957" t="s">
-        <v>2181</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B958" t="s">
-        <v>2181</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B959" t="s">
-        <v>2181</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B960" t="s">
-        <v>2182</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B961" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B962" t="s">
-        <v>2182</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B963" t="s">
-        <v>2183</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B964" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B965" t="s">
-        <v>2183</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B966" t="s">
-        <v>2184</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B967" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A968">
-        <v>317</v>
-      </c>
-      <c r="B968" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A969">
-        <v>318</v>
-      </c>
-      <c r="B969" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B970" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B971" t="s">
-        <v>2185</v>
+        <v>815</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B972" t="s">
-        <v>2186</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B973" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A974">
-        <v>319</v>
-      </c>
-      <c r="B974" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A975">
-        <v>320</v>
-      </c>
-      <c r="B975" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B976" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B977" t="s">
-        <v>2187</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B978" t="s">
-        <v>2188</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B979" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B980" t="s">
-        <v>2188</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B981" t="s">
-        <v>2189</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B982" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B983" t="s">
-        <v>2189</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B984" t="s">
-        <v>2190</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B985" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B986" t="s">
-        <v>2190</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B987" t="s">
-        <v>2191</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B988" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B989" t="s">
-        <v>2191</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B990" t="s">
-        <v>2192</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B991" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B992" t="s">
-        <v>2192</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B993" t="s">
-        <v>2193</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B994" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A995">
-        <v>326</v>
-      </c>
-      <c r="B995" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A996">
-        <v>327</v>
-      </c>
-      <c r="B996" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B997" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A998">
-        <v>327</v>
-      </c>
-      <c r="B998" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A999">
-        <v>328</v>
-      </c>
-      <c r="B999" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1000" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1001" t="s">
-        <v>2195</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1002" t="s">
-        <v>2196</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1003" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1004" t="s">
-        <v>2196</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1005" t="s">
-        <v>2197</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1006" t="s">
-        <v>2197</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1007" t="s">
-        <v>2197</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B1008" t="s">
-        <v>2198</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B1009" t="s">
-        <v>2198</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B1010" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B1011" t="s">
-        <v>2199</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B1012" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1013">
-        <v>332</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1014">
-        <v>333</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>2200</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B1015" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B1016" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B1017" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1018" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1019" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B1020" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1021" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1022" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B1023" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B1024" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B1025" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B1026" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B1027" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B1028" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B1029" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B1030" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B1031" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B1032" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B1033" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B1034" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B1035" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B1036" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B1037" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B1038" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B1039" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B1040" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B1041" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B1042" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B1043" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B1044" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B1045" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B1046" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B1047" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B1048" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B1049" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B1050" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B1051" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B1052" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B1053" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1054" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B1055" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B1056" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B1057" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B1058" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B1059" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B1060" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B1061" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B1062" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B1063" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B1064" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B1065" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1066" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1067" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B1068" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B1069" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B1070" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B1071" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B1072" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B1073" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B1074" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1075">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B1075" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B1076" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B1077" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B1078" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B1079" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B1080" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B1081" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B1082" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B1083" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B1084" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B1085" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B1086" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B1087" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B1088" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B1089" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1090" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1091" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B1092" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B1093" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B1094" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B1095" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B1096" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B1097" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B1098" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B1099" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B1100" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B1101" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B1102" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B1103" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B1104" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1105" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1106" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B1107" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B1108" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B1109" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B1110" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1111">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B1111" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B1112" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B1113" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B1114" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B1115" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B1116" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1117" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B1118" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B1119" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1120" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1121" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B1122" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B1123" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B1124" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B1125" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B1126" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B1127" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B1128" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B1129" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B1130" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B1131" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B1132" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B1133" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B1134" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B1135" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B1136" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1137" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B1138" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B1139" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B1140" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B1141" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B1142" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1143" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B1144" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B1145" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B1146" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B1147" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B1148" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B1149" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B1150" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B1151" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B1152" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1153" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1154" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B1155" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1156" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1157" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B1158" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B1159" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B1160" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B1161" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B1162" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B1163" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B1164" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B1165" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B1166" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B1167" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1168" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1169" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B1170" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B1171" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B1172" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B1173" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B1174" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B1175" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B1176" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B1177" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B1178" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B1179" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B1180" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B1181" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B1182" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B1183" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B1184" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B1185" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B1186" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B1187" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B1188" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1189" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1190" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B1191" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1192" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1193" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B1194" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B1195" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B1196" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B1197" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1198" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1199" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B1200" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1201" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B1202" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B1203" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1204" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1205" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B1206" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B1207" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B1208" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B1209" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B1210" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B1211" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B1212" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B1213" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B1214" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B1215" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B1216" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B1217" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B1218" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B1219" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B1220" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B1221" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B1222" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B1223" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B1224" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B1225" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B1226" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1227" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B1228" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B1229" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B1230" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B1231" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B1232" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1233" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B1234" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B1235" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B1236" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1237" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1238" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B1239" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B1240" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B1241" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B1242" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B1243" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B1244" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B1245" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B1246" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B1247" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B1248" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B1249" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B1250" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1251" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1252" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B1253" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B1254" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B1255" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B1256" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B1257" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B1258" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B1259" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B1260" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1261" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1262" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B1263" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1264" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B1265" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B1266" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B1267" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B1268" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B1269" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B1270" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B1271" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B1272" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B1273" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B1274" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B1275" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B1276" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B1277" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B1278" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1279">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B1279" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B1280" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B1281" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B1282" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B1283" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B1284" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1285" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1286" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B1287" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B1288" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B1289" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B1290" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B1291" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B1292" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B1293" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B1294" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B1295" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B1296" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B1297" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B1298" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B1299" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B1300" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B1301" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B1302" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B1303" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B1304" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B1305" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B1306" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B1307" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B1308" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B1309" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B1310" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B1311" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B1312" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B1313" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B1314" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1315" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1316" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B1317" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1318" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1319" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B1320" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B1321" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B1322" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B1323" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B1324" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B1325" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B1326" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1327" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1328" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B1329" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B1330" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B1331" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B1332" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B1333" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B1334" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B1335" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1336" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B1337" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B1338" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B1339" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B1340" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B1341" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B1342" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B1343" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B1344" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B1345" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B1346" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B1347" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B1348" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B1349" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B1350" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B1351" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B1352" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B1353" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B1354" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B1355" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B1356" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1357" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1358" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B1359" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1360" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1361" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B1362" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B1363" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B1364" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1365" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B1366" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B1367" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B1368" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1369" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1370" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B1371" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1372" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1373" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B1374" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B1375" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B1376" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B1377" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B1378" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B1379" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1380" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B1381" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B1382" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B1383" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B1384" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B1385" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B1386" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B1387" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B1388" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B1389" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B1390" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B1391" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1392" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1393" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1394" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B1395" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B1396" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B1397" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B1398" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B1399" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B1400" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B1401" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B1402" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B1403" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B1404" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1405" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1406" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B1407" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B1408" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B1409" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B1410" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B1411" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B1412" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1413" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1414" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1415" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B1416" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B1417" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B1418" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B1419" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B1420" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B1421" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B1422" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1423" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1424" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B1425" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B1426" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B1427" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B1428" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B1429" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B1430" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B1431" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B1432" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B1433" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1434" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B1435" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B1436" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B1437" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B1438" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B1439" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B1440" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B1441" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B1442" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B1443" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B1444" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B1445" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B1446" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B1447" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B1448" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B1449" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B1450" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B1451" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B1452" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B1453" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B1454" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B1455" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B1456" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B1457" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B1458" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1459" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1460" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B1461" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B1462" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B1463" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B1464" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B1465" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B1466" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B1467" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1468" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1469" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B1470" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B1471" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B1472" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B1473" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1474" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B1475" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1476">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B1476" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B1477" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1478">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B1478" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B1479" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B1480" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B1481" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B1482" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B1483" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B1484" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B1485" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B1486" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B1487" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B1488" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B1489" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B1490" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B1491" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B1492" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B1493" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B1494" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B1495" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B1496" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B1497" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B1498" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B1499" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B1500" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1501" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B1502" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B1503" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B1504" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B1505" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B1506" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B1507" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B1508" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B1509" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B1510" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B1511" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B1512" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B1513" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B1514" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B1515" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B1516" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B1517" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B1518" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B1519" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B1520" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B1521" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B1522" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B1523" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B1524" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B1525" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1526">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B1526" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B1527" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B1528" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B1529" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B1530" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B1531" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B1532" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1533">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B1533" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B1534" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B1535" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B1536" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B1537" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B1538" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B1539" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B1540" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B1541" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B1542" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B1543" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B1544" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B1545" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B1546" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B1547" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B1548" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1549">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B1549" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B1550" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B1551" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B1552" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B1553" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B1554" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1555">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B1555" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B1556" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B1557" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1558" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1559" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B1560" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B1561" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B1562" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B1563" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B1564" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B1565" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B1566" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B1567" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B1568" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B1569" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B1570" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B1571" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B1572" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B1573" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B1574" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B1575" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B1576" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B1577" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B1578" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B1579" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B1580" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B1581" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B1582" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B1583" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B1584" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B1585" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B1586" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B1587" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B1588" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B1589" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1590">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B1590" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B1591" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1592">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B1592" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1593">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B1593" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1594">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B1594" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1595">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B1595" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1596">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B1596" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1597">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B1597" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1598">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B1598" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1599">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B1599" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1600">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B1600" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1601">
+        <v>525</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1602">
+        <v>525</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1603">
+        <v>526</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1604">
+        <v>526</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1605">
+        <v>526</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1606">
+        <v>527</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1607">
+        <v>527</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1608">
+        <v>527</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1609">
         <v>528</v>
       </c>
-      <c r="B1601" t="s">
+      <c r="B1609" t="s">
         <v>2395</v>
       </c>
     </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1610">
+        <v>528</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1611">
+        <v>528</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>2395</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1601">
-    <sortCondition ref="A2:A1601"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1611">
+    <sortCondition ref="A2:A1611"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/WHO_Tumors/intermediate/df_5th_edition_manual_edit.xlsx
+++ b/data/WHO_Tumors/intermediate/df_5th_edition_manual_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lahiria/Desktop/MTP_Paper/CT-Embedding-Paper/data/WHO_Tumors/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979E4239-98F0-8343-8AC3-CDA83641F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723D31AB-168A-7445-864C-56DDAE35B8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3120" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10892" uniqueCount="2763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10808" uniqueCount="2878">
   <si>
     <t>Tumor_Names</t>
   </si>
@@ -8311,6 +8311,351 @@
   </si>
   <si>
     <t>lymphomas associated with immunodeficiency and dysregulation</t>
+  </si>
+  <si>
+    <t>malformations of the optic disc</t>
+  </si>
+  <si>
+    <t>malformations of the optic nerve</t>
+  </si>
+  <si>
+    <t>malignant apocrine tumours</t>
+  </si>
+  <si>
+    <t>malignant eccrine tumours</t>
+  </si>
+  <si>
+    <t>malignant maxillofacial bone tumours</t>
+  </si>
+  <si>
+    <t>malignant cartilage tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malignant melanocytic tumours of the choroid </t>
+  </si>
+  <si>
+    <t>malignant melanocytic tumours of the ciliary body</t>
+  </si>
+  <si>
+    <t>mature t-cell leukaemias</t>
+  </si>
+  <si>
+    <t>mature nk-cell leukaemias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medulloepithelioma of the optic disc </t>
+  </si>
+  <si>
+    <t>medulloepithelioma of the optic nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melanocytic tumours of the optic disc </t>
+  </si>
+  <si>
+    <t>melanocytic tumours of the optic nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melanocytoma of the optic disc </t>
+  </si>
+  <si>
+    <t>melanocytoma of the optic nerve</t>
+  </si>
+  <si>
+    <t>mixed tumours</t>
+  </si>
+  <si>
+    <t>stromal tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesonephric remnants </t>
+  </si>
+  <si>
+    <t>mesonephric hyperplasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metastases to the brain </t>
+  </si>
+  <si>
+    <t>metastases to the spinal cord parenchyma</t>
+  </si>
+  <si>
+    <t>metastases to the head region</t>
+  </si>
+  <si>
+    <t>metastases to the neck region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metastasis to the heart </t>
+  </si>
+  <si>
+    <t>metastasis to the pericardium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metastasis to the testis </t>
+  </si>
+  <si>
+    <t>metastasis to the paratestis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metastasis to the thymus </t>
+  </si>
+  <si>
+    <t>metastasis to the mediastinal lymph nodes</t>
+  </si>
+  <si>
+    <t>mixed stromal tumours</t>
+  </si>
+  <si>
+    <t>other sex cord stromal tumours</t>
+  </si>
+  <si>
+    <t>monodermal teratomas arising from a dermoid cyst</t>
+  </si>
+  <si>
+    <t>somatic-type tumours arising from a dermoid cyst</t>
+  </si>
+  <si>
+    <t>mucinous adenofibroma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mucinous cystic neoplasm of the liver </t>
+  </si>
+  <si>
+    <t>mucinous cystic neoplasm of the biliary system</t>
+  </si>
+  <si>
+    <t>mucosal naevi</t>
+  </si>
+  <si>
+    <t>genital naevi</t>
+  </si>
+  <si>
+    <t>myeloid neoplasms associated with antecedent or predisposing conditions</t>
+  </si>
+  <si>
+    <t>myeloid proliferations associated with antecedent or predisposing conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myeloid proliferations </t>
+  </si>
+  <si>
+    <t>myoepithelioma of the lung</t>
+  </si>
+  <si>
+    <t>myoepithelial carcinoma of the lung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myofibroma </t>
+  </si>
+  <si>
+    <t>myofibromatosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myositis ossificans </t>
+  </si>
+  <si>
+    <t>fibro-osseous pseudotumour of digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naevus of ito </t>
+  </si>
+  <si>
+    <t>naevus of ota</t>
+  </si>
+  <si>
+    <t>neuroendocrine neoplasms of the gallbladder</t>
+  </si>
+  <si>
+    <t>neuroendocrine neoplasms of the bile ducts</t>
+  </si>
+  <si>
+    <t>nodular retinal gliosis</t>
+  </si>
+  <si>
+    <t>massive retinal gliosis</t>
+  </si>
+  <si>
+    <t>nodular melanomas</t>
+  </si>
+  <si>
+    <t>other melanomas</t>
+  </si>
+  <si>
+    <t>ocular melanocytic tumours</t>
+  </si>
+  <si>
+    <t>maxillofacial bone tumours</t>
+  </si>
+  <si>
+    <t>oesophageal adenosquamous carcinomas</t>
+  </si>
+  <si>
+    <t>oesophageal mucoepidermoid carcinomas</t>
+  </si>
+  <si>
+    <t>oncocytic renal tumours</t>
+  </si>
+  <si>
+    <t>chromophobe renal tumours</t>
+  </si>
+  <si>
+    <t>oral cavity tumours</t>
+  </si>
+  <si>
+    <t>mobile tongue tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oral potentially malignant disorders </t>
+  </si>
+  <si>
+    <t>orbital dermoid cysts</t>
+  </si>
+  <si>
+    <t>other orbital cysts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other tumours of the neck </t>
+  </si>
+  <si>
+    <t>other tumours of the lymph nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ovarian-type tumours of the collecting ducts </t>
+  </si>
+  <si>
+    <t>ovarian-type tumours of the rete testis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmar fibromatosis </t>
+  </si>
+  <si>
+    <t>plantar fibromatosis</t>
+  </si>
+  <si>
+    <t>papillary conjunctivitis</t>
+  </si>
+  <si>
+    <t>follicular conjunctivitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">papillary intralymphatic angioendothelioma </t>
+  </si>
+  <si>
+    <t>parasympathetic paraganglioma (head paraganglioma)</t>
+  </si>
+  <si>
+    <t>parasympathetic paraganglioma (neck paraganglioma)</t>
+  </si>
+  <si>
+    <t>penile adenosquamous carcinomas</t>
+  </si>
+  <si>
+    <t>penile mucoepidermoid carcinomas</t>
+  </si>
+  <si>
+    <t>pericytic tumours</t>
+  </si>
+  <si>
+    <t>peripheral neural tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pigment epithelial tumours of the optic disc </t>
+  </si>
+  <si>
+    <t>pigment epithelial tumours of the optic nerve</t>
+  </si>
+  <si>
+    <t>pilocytic astrocytoma of the optic nerve</t>
+  </si>
+  <si>
+    <t>other gliomas of the optic nerve</t>
+  </si>
+  <si>
+    <t>placental site nodule</t>
+  </si>
+  <si>
+    <t>placental site plaque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasma cell neoplasms </t>
+  </si>
+  <si>
+    <t>other diseases with paraproteins</t>
+  </si>
+  <si>
+    <t>posterior pituitary neoplasms</t>
+  </si>
+  <si>
+    <t>hypothalamic neoplasms</t>
+  </si>
+  <si>
+    <t>pre-neoplastic small lymphocytic proliferations</t>
+  </si>
+  <si>
+    <t>neoplastic small lymphocytic proliferations</t>
+  </si>
+  <si>
+    <t>premalignant epithelial tumours of the conjunctiva</t>
+  </si>
+  <si>
+    <t>malignant epithelial tumours of the conjunctiva</t>
+  </si>
+  <si>
+    <t>premalignant melanocytic conjunctival tumours</t>
+  </si>
+  <si>
+    <t>malignant melanocytic conjunctival tumours</t>
+  </si>
+  <si>
+    <t>premalignant retinal tumours</t>
+  </si>
+  <si>
+    <t>malignant retinal tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary cutaneous t-cell lymphoid proliferations </t>
+  </si>
+  <si>
+    <t>primary cutaneous t-cell lymphomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary neural tumours of the optic disc </t>
+  </si>
+  <si>
+    <t>primary neural tumours of the optic nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary tumours of the optic disc </t>
+  </si>
+  <si>
+    <t>primary tumours of the optic nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proliferative fasciitis </t>
+  </si>
+  <si>
+    <t>proliferative myositis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterygium </t>
+  </si>
+  <si>
+    <t>pingueculum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactive and cystic lesions of the iris </t>
+  </si>
+  <si>
+    <t>reactive and cystic lesions of the ciliary body pigment epithelium</t>
+  </si>
+  <si>
+    <t>male genital tumours</t>
+  </si>
+  <si>
+    <t>retinal tumours</t>
+  </si>
+  <si>
+    <t>neuroepithelial tumours</t>
   </si>
 </sst>
 </file>
@@ -42176,8 +42521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A40BD13-64D2-A54D-9025-021DFD7EBC52}">
   <dimension ref="A1:B1611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1000" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
-      <selection activeCell="B1012" sqref="B1012"/>
+    <sheetView tabSelected="1" topLeftCell="A1328" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+      <selection activeCell="B1340" sqref="B1340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49005,7 +49350,7 @@
         <v>330</v>
       </c>
       <c r="B1016" t="s">
-        <v>2197</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
@@ -49013,7 +49358,7 @@
         <v>330</v>
       </c>
       <c r="B1017" t="s">
-        <v>2197</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
@@ -49029,7 +49374,7 @@
         <v>331</v>
       </c>
       <c r="B1019" t="s">
-        <v>2198</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
@@ -49037,7 +49382,7 @@
         <v>331</v>
       </c>
       <c r="B1020" t="s">
-        <v>2198</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
@@ -49048,22 +49393,6 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1022">
-        <v>332</v>
-      </c>
-      <c r="B1022" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1023">
-        <v>332</v>
-      </c>
-      <c r="B1023" t="s">
-        <v>2199</v>
-      </c>
-    </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>333</v>
@@ -49072,22 +49401,6 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1025">
-        <v>333</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1026">
-        <v>333</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>2200</v>
-      </c>
-    </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>334</v>
@@ -49101,7 +49414,7 @@
         <v>334</v>
       </c>
       <c r="B1028" t="s">
-        <v>2201</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
@@ -49109,7 +49422,7 @@
         <v>334</v>
       </c>
       <c r="B1029" t="s">
-        <v>2201</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
@@ -49125,7 +49438,7 @@
         <v>335</v>
       </c>
       <c r="B1031" t="s">
-        <v>2202</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
@@ -49133,7 +49446,7 @@
         <v>335</v>
       </c>
       <c r="B1032" t="s">
-        <v>2202</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
@@ -49144,22 +49457,6 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1034">
-        <v>336</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1035">
-        <v>336</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>2203</v>
-      </c>
-    </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>337</v>
@@ -49173,7 +49470,7 @@
         <v>337</v>
       </c>
       <c r="B1037" t="s">
-        <v>2204</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
@@ -49181,7 +49478,7 @@
         <v>337</v>
       </c>
       <c r="B1038" t="s">
-        <v>2204</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
@@ -49197,7 +49494,7 @@
         <v>338</v>
       </c>
       <c r="B1040" t="s">
-        <v>2205</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
@@ -49205,7 +49502,7 @@
         <v>338</v>
       </c>
       <c r="B1041" t="s">
-        <v>2205</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
@@ -49221,7 +49518,7 @@
         <v>339</v>
       </c>
       <c r="B1043" t="s">
-        <v>2206</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
@@ -49229,7 +49526,7 @@
         <v>339</v>
       </c>
       <c r="B1044" t="s">
-        <v>2206</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
@@ -49245,7 +49542,7 @@
         <v>340</v>
       </c>
       <c r="B1046" t="s">
-        <v>2207</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
@@ -49253,7 +49550,7 @@
         <v>340</v>
       </c>
       <c r="B1047" t="s">
-        <v>2207</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
@@ -49269,7 +49566,7 @@
         <v>341</v>
       </c>
       <c r="B1049" t="s">
-        <v>2208</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
@@ -49277,7 +49574,7 @@
         <v>341</v>
       </c>
       <c r="B1050" t="s">
-        <v>2208</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
@@ -49293,7 +49590,7 @@
         <v>342</v>
       </c>
       <c r="B1052" t="s">
-        <v>2209</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
@@ -49301,7 +49598,7 @@
         <v>342</v>
       </c>
       <c r="B1053" t="s">
-        <v>2209</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
@@ -49317,7 +49614,7 @@
         <v>343</v>
       </c>
       <c r="B1055" t="s">
-        <v>2210</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
@@ -49325,7 +49622,7 @@
         <v>343</v>
       </c>
       <c r="B1056" t="s">
-        <v>2210</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
@@ -49336,22 +49633,6 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1058">
-        <v>344</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1059">
-        <v>344</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>2211</v>
-      </c>
-    </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>345</v>
@@ -49365,7 +49646,7 @@
         <v>345</v>
       </c>
       <c r="B1061" t="s">
-        <v>2212</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
@@ -49373,7 +49654,7 @@
         <v>345</v>
       </c>
       <c r="B1062" t="s">
-        <v>2212</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
@@ -49389,7 +49670,7 @@
         <v>346</v>
       </c>
       <c r="B1064" t="s">
-        <v>2213</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
@@ -49397,7 +49678,7 @@
         <v>346</v>
       </c>
       <c r="B1065" t="s">
-        <v>2213</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
@@ -49408,22 +49689,6 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1067">
-        <v>347</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1068">
-        <v>347</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>2214</v>
-      </c>
-    </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>348</v>
@@ -49437,7 +49702,7 @@
         <v>348</v>
       </c>
       <c r="B1070" t="s">
-        <v>2215</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
@@ -49445,7 +49710,7 @@
         <v>348</v>
       </c>
       <c r="B1071" t="s">
-        <v>2215</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
@@ -49456,22 +49721,6 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1073">
-        <v>349</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1074">
-        <v>349</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>2216</v>
-      </c>
-    </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>350</v>
@@ -49485,7 +49734,7 @@
         <v>350</v>
       </c>
       <c r="B1076" t="s">
-        <v>2217</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
@@ -49493,7 +49742,7 @@
         <v>350</v>
       </c>
       <c r="B1077" t="s">
-        <v>2217</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
@@ -49504,22 +49753,6 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1079">
-        <v>351</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1080">
-        <v>351</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>2218</v>
-      </c>
-    </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>352</v>
@@ -49533,7 +49766,7 @@
         <v>352</v>
       </c>
       <c r="B1082" t="s">
-        <v>2219</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
@@ -49541,7 +49774,7 @@
         <v>352</v>
       </c>
       <c r="B1083" t="s">
-        <v>2219</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
@@ -49557,7 +49790,7 @@
         <v>353</v>
       </c>
       <c r="B1085" t="s">
-        <v>2220</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
@@ -49565,7 +49798,7 @@
         <v>353</v>
       </c>
       <c r="B1086" t="s">
-        <v>2220</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
@@ -49576,22 +49809,6 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1088">
-        <v>354</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1089">
-        <v>354</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>2221</v>
-      </c>
-    </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090">
         <v>355</v>
@@ -49600,22 +49817,6 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1091">
-        <v>355</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1092">
-        <v>355</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>2222</v>
-      </c>
-    </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093">
         <v>356</v>
@@ -49624,22 +49825,6 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1094">
-        <v>356</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1095">
-        <v>356</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>2223</v>
-      </c>
-    </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096">
         <v>357</v>
@@ -49653,7 +49838,7 @@
         <v>357</v>
       </c>
       <c r="B1097" t="s">
-        <v>2224</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
@@ -49661,7 +49846,7 @@
         <v>357</v>
       </c>
       <c r="B1098" t="s">
-        <v>2224</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
@@ -49672,22 +49857,6 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1100">
-        <v>358</v>
-      </c>
-      <c r="B1100" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1101">
-        <v>358</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>2225</v>
-      </c>
-    </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102">
         <v>359</v>
@@ -49696,22 +49865,6 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1103">
-        <v>359</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1104">
-        <v>359</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>2226</v>
-      </c>
-    </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105">
         <v>360</v>
@@ -49720,22 +49873,6 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1106">
-        <v>360</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1107">
-        <v>360</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>2227</v>
-      </c>
-    </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108">
         <v>361</v>
@@ -49744,22 +49881,6 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1109">
-        <v>361</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1110">
-        <v>361</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>2228</v>
-      </c>
-    </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1111">
         <v>362</v>
@@ -49768,22 +49889,6 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1112">
-        <v>362</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1113">
-        <v>362</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>2229</v>
-      </c>
-    </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114">
         <v>363</v>
@@ -49792,22 +49897,6 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1115">
-        <v>363</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1116">
-        <v>363</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>2230</v>
-      </c>
-    </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117">
         <v>364</v>
@@ -49816,22 +49905,6 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1118">
-        <v>364</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1119">
-        <v>364</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>2231</v>
-      </c>
-    </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120">
         <v>365</v>
@@ -49845,7 +49918,7 @@
         <v>365</v>
       </c>
       <c r="B1121" t="s">
-        <v>2232</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
@@ -49853,7 +49926,7 @@
         <v>365</v>
       </c>
       <c r="B1122" t="s">
-        <v>2232</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
@@ -49869,7 +49942,7 @@
         <v>366</v>
       </c>
       <c r="B1124" t="s">
-        <v>2233</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
@@ -49877,7 +49950,7 @@
         <v>366</v>
       </c>
       <c r="B1125" t="s">
-        <v>2233</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
@@ -49893,7 +49966,7 @@
         <v>367</v>
       </c>
       <c r="B1127" t="s">
-        <v>2234</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
@@ -49901,7 +49974,7 @@
         <v>367</v>
       </c>
       <c r="B1128" t="s">
-        <v>2234</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
@@ -49912,22 +49985,6 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1130">
-        <v>368</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1131">
-        <v>368</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>2235</v>
-      </c>
-    </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132">
         <v>369</v>
@@ -49941,7 +49998,7 @@
         <v>369</v>
       </c>
       <c r="B1133" t="s">
-        <v>2236</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
@@ -49949,7 +50006,7 @@
         <v>369</v>
       </c>
       <c r="B1134" t="s">
-        <v>2236</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
@@ -49960,22 +50017,6 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1136">
-        <v>370</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1137">
-        <v>370</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>2237</v>
-      </c>
-    </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138">
         <v>371</v>
@@ -49984,22 +50025,6 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1139">
-        <v>371</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1140">
-        <v>371</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>2238</v>
-      </c>
-    </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141">
         <v>372</v>
@@ -50008,22 +50033,6 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1142">
-        <v>372</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1143">
-        <v>372</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>2239</v>
-      </c>
-    </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144">
         <v>373</v>
@@ -50032,22 +50041,6 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1145">
-        <v>373</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1146">
-        <v>373</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>2240</v>
-      </c>
-    </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147">
         <v>374</v>
@@ -50061,7 +50054,7 @@
         <v>374</v>
       </c>
       <c r="B1148" t="s">
-        <v>2241</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
@@ -50069,7 +50062,7 @@
         <v>374</v>
       </c>
       <c r="B1149" t="s">
-        <v>2241</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
@@ -50085,7 +50078,7 @@
         <v>375</v>
       </c>
       <c r="B1151" t="s">
-        <v>2242</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
@@ -50093,7 +50086,7 @@
         <v>375</v>
       </c>
       <c r="B1152" t="s">
-        <v>2242</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
@@ -50109,7 +50102,7 @@
         <v>376</v>
       </c>
       <c r="B1154" t="s">
-        <v>2243</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
@@ -50117,7 +50110,7 @@
         <v>376</v>
       </c>
       <c r="B1155" t="s">
-        <v>2243</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
@@ -50133,7 +50126,7 @@
         <v>377</v>
       </c>
       <c r="B1157" t="s">
-        <v>2244</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
@@ -50141,7 +50134,7 @@
         <v>377</v>
       </c>
       <c r="B1158" t="s">
-        <v>2244</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
@@ -50157,7 +50150,7 @@
         <v>378</v>
       </c>
       <c r="B1160" t="s">
-        <v>2245</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
@@ -50165,7 +50158,7 @@
         <v>378</v>
       </c>
       <c r="B1161" t="s">
-        <v>2245</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
@@ -50181,7 +50174,7 @@
         <v>379</v>
       </c>
       <c r="B1163" t="s">
-        <v>2246</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
@@ -50189,7 +50182,7 @@
         <v>379</v>
       </c>
       <c r="B1164" t="s">
-        <v>2246</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
@@ -50205,7 +50198,7 @@
         <v>380</v>
       </c>
       <c r="B1166" t="s">
-        <v>2247</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
@@ -50213,7 +50206,7 @@
         <v>380</v>
       </c>
       <c r="B1167" t="s">
-        <v>2247</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
@@ -50224,22 +50217,6 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1169">
-        <v>381</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1170">
-        <v>381</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>2248</v>
-      </c>
-    </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171">
         <v>382</v>
@@ -50253,7 +50230,7 @@
         <v>382</v>
       </c>
       <c r="B1172" t="s">
-        <v>2249</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
@@ -50261,7 +50238,7 @@
         <v>382</v>
       </c>
       <c r="B1173" t="s">
-        <v>2249</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
@@ -50277,7 +50254,7 @@
         <v>383</v>
       </c>
       <c r="B1175" t="s">
-        <v>2250</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
@@ -50285,7 +50262,7 @@
         <v>383</v>
       </c>
       <c r="B1176" t="s">
-        <v>2250</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
@@ -50301,7 +50278,7 @@
         <v>384</v>
       </c>
       <c r="B1178" t="s">
-        <v>2251</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
@@ -50309,7 +50286,7 @@
         <v>384</v>
       </c>
       <c r="B1179" t="s">
-        <v>2251</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
@@ -50325,7 +50302,7 @@
         <v>385</v>
       </c>
       <c r="B1181" t="s">
-        <v>2252</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
@@ -50333,7 +50310,7 @@
         <v>385</v>
       </c>
       <c r="B1182" t="s">
-        <v>2252</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
@@ -50349,7 +50326,7 @@
         <v>386</v>
       </c>
       <c r="B1184" t="s">
-        <v>2253</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
@@ -50357,7 +50334,7 @@
         <v>386</v>
       </c>
       <c r="B1185" t="s">
-        <v>2253</v>
+        <v>342</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
@@ -50373,7 +50350,7 @@
         <v>387</v>
       </c>
       <c r="B1187" t="s">
-        <v>2254</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
@@ -50381,7 +50358,7 @@
         <v>387</v>
       </c>
       <c r="B1188" t="s">
-        <v>2254</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
@@ -50397,7 +50374,7 @@
         <v>388</v>
       </c>
       <c r="B1190" t="s">
-        <v>2255</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
@@ -50405,7 +50382,7 @@
         <v>388</v>
       </c>
       <c r="B1191" t="s">
-        <v>2255</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
@@ -50421,7 +50398,7 @@
         <v>389</v>
       </c>
       <c r="B1193" t="s">
-        <v>2256</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
@@ -50429,7 +50406,7 @@
         <v>389</v>
       </c>
       <c r="B1194" t="s">
-        <v>2256</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
@@ -50445,7 +50422,7 @@
         <v>390</v>
       </c>
       <c r="B1196" t="s">
-        <v>2257</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
@@ -50453,7 +50430,7 @@
         <v>390</v>
       </c>
       <c r="B1197" t="s">
-        <v>2257</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
@@ -50469,7 +50446,7 @@
         <v>391</v>
       </c>
       <c r="B1199" t="s">
-        <v>2258</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
@@ -50477,7 +50454,7 @@
         <v>391</v>
       </c>
       <c r="B1200" t="s">
-        <v>2258</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
@@ -50493,7 +50470,7 @@
         <v>392</v>
       </c>
       <c r="B1202" t="s">
-        <v>2259</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
@@ -50501,7 +50478,7 @@
         <v>392</v>
       </c>
       <c r="B1203" t="s">
-        <v>2259</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
@@ -50512,22 +50489,6 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1205">
-        <v>393</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1206">
-        <v>393</v>
-      </c>
-      <c r="B1206" t="s">
-        <v>2260</v>
-      </c>
-    </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207">
         <v>394</v>
@@ -50536,22 +50497,6 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1208">
-        <v>394</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1209">
-        <v>394</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>2261</v>
-      </c>
-    </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210">
         <v>395</v>
@@ -50560,22 +50505,6 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1211">
-        <v>395</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1212">
-        <v>395</v>
-      </c>
-      <c r="B1212" t="s">
-        <v>2262</v>
-      </c>
-    </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213">
         <v>396</v>
@@ -50589,7 +50518,7 @@
         <v>396</v>
       </c>
       <c r="B1214" t="s">
-        <v>2263</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
@@ -50597,7 +50526,7 @@
         <v>396</v>
       </c>
       <c r="B1215" t="s">
-        <v>2263</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
@@ -50613,7 +50542,7 @@
         <v>397</v>
       </c>
       <c r="B1217" t="s">
-        <v>2264</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
@@ -50621,7 +50550,7 @@
         <v>397</v>
       </c>
       <c r="B1218" t="s">
-        <v>2264</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
@@ -50632,22 +50561,6 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1220">
-        <v>398</v>
-      </c>
-      <c r="B1220" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1221">
-        <v>398</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>2265</v>
-      </c>
-    </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222">
         <v>399</v>
@@ -50661,7 +50574,7 @@
         <v>399</v>
       </c>
       <c r="B1223" t="s">
-        <v>2266</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
@@ -50669,7 +50582,7 @@
         <v>399</v>
       </c>
       <c r="B1224" t="s">
-        <v>2266</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
@@ -50685,7 +50598,7 @@
         <v>400</v>
       </c>
       <c r="B1226" t="s">
-        <v>2267</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
@@ -50693,7 +50606,7 @@
         <v>400</v>
       </c>
       <c r="B1227" t="s">
-        <v>2267</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
@@ -50709,7 +50622,7 @@
         <v>401</v>
       </c>
       <c r="B1229" t="s">
-        <v>2268</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
@@ -50717,7 +50630,7 @@
         <v>401</v>
       </c>
       <c r="B1230" t="s">
-        <v>2268</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
@@ -50728,22 +50641,6 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1232">
-        <v>402</v>
-      </c>
-      <c r="B1232" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1233">
-        <v>402</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>2269</v>
-      </c>
-    </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234">
         <v>403</v>
@@ -50757,7 +50654,7 @@
         <v>403</v>
       </c>
       <c r="B1235" t="s">
-        <v>2270</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
@@ -50765,7 +50662,7 @@
         <v>403</v>
       </c>
       <c r="B1236" t="s">
-        <v>2270</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
@@ -50781,7 +50678,7 @@
         <v>404</v>
       </c>
       <c r="B1238" t="s">
-        <v>2271</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
@@ -50789,7 +50686,7 @@
         <v>404</v>
       </c>
       <c r="B1239" t="s">
-        <v>2271</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
@@ -50805,7 +50702,7 @@
         <v>405</v>
       </c>
       <c r="B1241" t="s">
-        <v>2272</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
@@ -50813,7 +50710,7 @@
         <v>405</v>
       </c>
       <c r="B1242" t="s">
-        <v>2272</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
@@ -50829,7 +50726,7 @@
         <v>406</v>
       </c>
       <c r="B1244" t="s">
-        <v>2273</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
@@ -50837,7 +50734,7 @@
         <v>406</v>
       </c>
       <c r="B1245" t="s">
-        <v>2273</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
@@ -50853,7 +50750,7 @@
         <v>407</v>
       </c>
       <c r="B1247" t="s">
-        <v>2274</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
@@ -50861,7 +50758,7 @@
         <v>407</v>
       </c>
       <c r="B1248" t="s">
-        <v>2274</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
@@ -50877,7 +50774,7 @@
         <v>408</v>
       </c>
       <c r="B1250" t="s">
-        <v>2275</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
@@ -50885,7 +50782,7 @@
         <v>408</v>
       </c>
       <c r="B1251" t="s">
-        <v>2275</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
@@ -50901,7 +50798,7 @@
         <v>409</v>
       </c>
       <c r="B1253" t="s">
-        <v>2276</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
@@ -50909,7 +50806,7 @@
         <v>409</v>
       </c>
       <c r="B1254" t="s">
-        <v>2276</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
@@ -50925,7 +50822,7 @@
         <v>410</v>
       </c>
       <c r="B1256" t="s">
-        <v>2277</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
@@ -50933,7 +50830,7 @@
         <v>410</v>
       </c>
       <c r="B1257" t="s">
-        <v>2277</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
@@ -50944,22 +50841,6 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1259">
-        <v>411</v>
-      </c>
-      <c r="B1259" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1260">
-        <v>411</v>
-      </c>
-      <c r="B1260" t="s">
-        <v>2278</v>
-      </c>
-    </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261">
         <v>412</v>
@@ -50973,7 +50854,7 @@
         <v>412</v>
       </c>
       <c r="B1262" t="s">
-        <v>2279</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
@@ -50981,7 +50862,7 @@
         <v>412</v>
       </c>
       <c r="B1263" t="s">
-        <v>2279</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
@@ -50997,7 +50878,7 @@
         <v>413</v>
       </c>
       <c r="B1265" t="s">
-        <v>2280</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
@@ -51005,7 +50886,7 @@
         <v>413</v>
       </c>
       <c r="B1266" t="s">
-        <v>2280</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
@@ -51016,22 +50897,6 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1268">
-        <v>414</v>
-      </c>
-      <c r="B1268" t="s">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1269">
-        <v>414</v>
-      </c>
-      <c r="B1269" t="s">
-        <v>2281</v>
-      </c>
-    </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270">
         <v>415</v>
@@ -51045,7 +50910,7 @@
         <v>415</v>
       </c>
       <c r="B1271" t="s">
-        <v>2282</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
@@ -51053,7 +50918,7 @@
         <v>415</v>
       </c>
       <c r="B1272" t="s">
-        <v>2282</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
@@ -51069,7 +50934,7 @@
         <v>416</v>
       </c>
       <c r="B1274" t="s">
-        <v>2283</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
@@ -51077,7 +50942,7 @@
         <v>416</v>
       </c>
       <c r="B1275" t="s">
-        <v>2283</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
@@ -51093,7 +50958,7 @@
         <v>417</v>
       </c>
       <c r="B1277" t="s">
-        <v>2284</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
@@ -51101,7 +50966,7 @@
         <v>417</v>
       </c>
       <c r="B1278" t="s">
-        <v>2284</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
@@ -51112,22 +50977,6 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1280">
-        <v>418</v>
-      </c>
-      <c r="B1280" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1281">
-        <v>418</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>2285</v>
-      </c>
-    </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282">
         <v>419</v>
@@ -51141,7 +50990,7 @@
         <v>419</v>
       </c>
       <c r="B1283" t="s">
-        <v>2286</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
@@ -51149,7 +50998,7 @@
         <v>419</v>
       </c>
       <c r="B1284" t="s">
-        <v>2286</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
@@ -51160,22 +51009,6 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1286">
-        <v>420</v>
-      </c>
-      <c r="B1286" t="s">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1287">
-        <v>420</v>
-      </c>
-      <c r="B1287" t="s">
-        <v>2287</v>
-      </c>
-    </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288">
         <v>421</v>
@@ -51189,7 +51022,7 @@
         <v>421</v>
       </c>
       <c r="B1289" t="s">
-        <v>2288</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
@@ -51197,7 +51030,7 @@
         <v>421</v>
       </c>
       <c r="B1290" t="s">
-        <v>2288</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
@@ -51213,7 +51046,7 @@
         <v>422</v>
       </c>
       <c r="B1292" t="s">
-        <v>2289</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
@@ -51221,7 +51054,7 @@
         <v>422</v>
       </c>
       <c r="B1293" t="s">
-        <v>2289</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
@@ -51237,7 +51070,7 @@
         <v>423</v>
       </c>
       <c r="B1295" t="s">
-        <v>2290</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
@@ -51245,7 +51078,7 @@
         <v>423</v>
       </c>
       <c r="B1296" t="s">
-        <v>2290</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
@@ -51261,7 +51094,7 @@
         <v>424</v>
       </c>
       <c r="B1298" t="s">
-        <v>2291</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
@@ -51269,7 +51102,7 @@
         <v>424</v>
       </c>
       <c r="B1299" t="s">
-        <v>2291</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
@@ -51280,22 +51113,6 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1301">
-        <v>425</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1302">
-        <v>425</v>
-      </c>
-      <c r="B1302" t="s">
-        <v>2292</v>
-      </c>
-    </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303">
         <v>426</v>
@@ -51304,22 +51121,6 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1304">
-        <v>426</v>
-      </c>
-      <c r="B1304" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1305">
-        <v>426</v>
-      </c>
-      <c r="B1305" t="s">
-        <v>2293</v>
-      </c>
-    </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306">
         <v>427</v>
@@ -51333,7 +51134,7 @@
         <v>427</v>
       </c>
       <c r="B1307" t="s">
-        <v>2294</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
@@ -51341,7 +51142,7 @@
         <v>427</v>
       </c>
       <c r="B1308" t="s">
-        <v>2294</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
@@ -51352,22 +51153,6 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1310">
-        <v>428</v>
-      </c>
-      <c r="B1310" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1311">
-        <v>428</v>
-      </c>
-      <c r="B1311" t="s">
-        <v>2295</v>
-      </c>
-    </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312">
         <v>429</v>
@@ -51376,22 +51161,6 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1313">
-        <v>429</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1314">
-        <v>429</v>
-      </c>
-      <c r="B1314" t="s">
-        <v>2296</v>
-      </c>
-    </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315">
         <v>430</v>
@@ -51405,7 +51174,7 @@
         <v>430</v>
       </c>
       <c r="B1316" t="s">
-        <v>2297</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
@@ -51413,7 +51182,7 @@
         <v>430</v>
       </c>
       <c r="B1317" t="s">
-        <v>2297</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
@@ -51429,7 +51198,7 @@
         <v>431</v>
       </c>
       <c r="B1319" t="s">
-        <v>2298</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
@@ -51437,7 +51206,7 @@
         <v>431</v>
       </c>
       <c r="B1320" t="s">
-        <v>2298</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
@@ -51448,22 +51217,6 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1322">
-        <v>432</v>
-      </c>
-      <c r="B1322" t="s">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1323">
-        <v>432</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>2299</v>
-      </c>
-    </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324">
         <v>433</v>
@@ -51472,22 +51225,6 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1325">
-        <v>433</v>
-      </c>
-      <c r="B1325" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1326">
-        <v>433</v>
-      </c>
-      <c r="B1326" t="s">
-        <v>2300</v>
-      </c>
-    </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327">
         <v>434</v>
@@ -51496,22 +51233,6 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1328">
-        <v>434</v>
-      </c>
-      <c r="B1328" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1329">
-        <v>434</v>
-      </c>
-      <c r="B1329" t="s">
-        <v>2301</v>
-      </c>
-    </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330">
         <v>435</v>
@@ -51520,22 +51241,6 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1331">
-        <v>435</v>
-      </c>
-      <c r="B1331" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1332">
-        <v>435</v>
-      </c>
-      <c r="B1332" t="s">
-        <v>2302</v>
-      </c>
-    </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333">
         <v>436</v>
@@ -51544,43 +51249,11 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1334">
-        <v>436</v>
-      </c>
-      <c r="B1334" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1335">
-        <v>436</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>2303</v>
-      </c>
-    </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336">
         <v>437</v>
       </c>
       <c r="B1336" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1337">
-        <v>437</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1338">
-        <v>437</v>
-      </c>
-      <c r="B1338" t="s">
         <v>2304</v>
       </c>
     </row>

--- a/data/WHO_Tumors/intermediate/df_5th_edition_manual_edit.xlsx
+++ b/data/WHO_Tumors/intermediate/df_5th_edition_manual_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lahiria/Desktop/MTP_Paper/CT-Embedding-Paper/data/WHO_Tumors/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723D31AB-168A-7445-864C-56DDAE35B8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1B6DA-453F-F740-9FF2-240D144DAEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3120" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10808" uniqueCount="2878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10843" uniqueCount="3059">
   <si>
     <t>Tumor_Names</t>
   </si>
@@ -8656,6 +8656,549 @@
   </si>
   <si>
     <t>neuroepithelial tumours</t>
+  </si>
+  <si>
+    <t>secondary cutaneous involvement in t-cell and nk-cell lymphomas</t>
+  </si>
+  <si>
+    <t>secondary cutaneous involvement in t-cell and nk-cell leukaemias</t>
+  </si>
+  <si>
+    <t>secondary cutaneous involvement in t-cell lymphomas and leukaemias</t>
+  </si>
+  <si>
+    <t>secondary cutaneous involvement in nk-cell lymphomas and leukaemias</t>
+  </si>
+  <si>
+    <t>secondary cutaneous involvement in t-cell lymphomas</t>
+  </si>
+  <si>
+    <t>secondary cutaneous involvement in nk-cell lymphomas</t>
+  </si>
+  <si>
+    <t>secondary cutaneous involvement in t-cell leukaemias</t>
+  </si>
+  <si>
+    <t>secondary cutaneous involvement in nk-cell leukaemias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seromucinous cystadenoma </t>
+  </si>
+  <si>
+    <t>seromucinous adenofibroma</t>
+  </si>
+  <si>
+    <t>serotonin-producing tumours with carcinoid syndrome</t>
+  </si>
+  <si>
+    <t>serotonin-producing tumours without carcinoid syndrome</t>
+  </si>
+  <si>
+    <t>serous adenofibroma of the fallopian tube</t>
+  </si>
+  <si>
+    <t>serous papilloma of the fallopian tube</t>
+  </si>
+  <si>
+    <t>other tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple lentigo </t>
+  </si>
+  <si>
+    <t>lentiginous melanocytic naevus</t>
+  </si>
+  <si>
+    <t>small intestinal neuroendocrine neoplasms</t>
+  </si>
+  <si>
+    <t>ampullary neuroendocrine neoplasms</t>
+  </si>
+  <si>
+    <t>solid papillary carcinoma (in situ)</t>
+  </si>
+  <si>
+    <t>solid papillary carcinoma (invasive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spindle cell lipoma </t>
+  </si>
+  <si>
+    <t>splenic b-cell lymphomas</t>
+  </si>
+  <si>
+    <t>splenic b-cell leukaemias</t>
+  </si>
+  <si>
+    <t>squamous dysplasia of the lung</t>
+  </si>
+  <si>
+    <t>carcinoma in situ of the lung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squamous papilloma </t>
+  </si>
+  <si>
+    <t>squamous papillomatosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stromal hyperplasia </t>
+  </si>
+  <si>
+    <t>stromal hyperthecosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-cell and nk-cell lymphoid proliferations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-cell lymphoid proliferations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nk-cell lymphoid proliferations </t>
+  </si>
+  <si>
+    <t>t-cell and nk-cell lymphomas</t>
+  </si>
+  <si>
+    <t>nk-cell lymphomas</t>
+  </si>
+  <si>
+    <t>t-cell lymphoid proliferations and lymphomas</t>
+  </si>
+  <si>
+    <t>nk-cell lymphoid proliferations and lymphomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trichodiscomas </t>
+  </si>
+  <si>
+    <t>fibrofolliculomas</t>
+  </si>
+  <si>
+    <t>tufted angioma</t>
+  </si>
+  <si>
+    <t>kaposiform haemangioendothelioma</t>
+  </si>
+  <si>
+    <t>tumour-like lesions of the conjunctiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours and tumour-like lesions of the neck </t>
+  </si>
+  <si>
+    <t>tumours and tumour-like lesions of the lymph nodes</t>
+  </si>
+  <si>
+    <t>tumours of the neck and lymph nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the neck </t>
+  </si>
+  <si>
+    <t>tumours of the lymph nodes</t>
+  </si>
+  <si>
+    <t>tumour-like lesions of the neck and lymph nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumour-like lesions of the neck </t>
+  </si>
+  <si>
+    <t>tumour-like lesions of the lymph nodes</t>
+  </si>
+  <si>
+    <t>tumours of haematopoietic origin</t>
+  </si>
+  <si>
+    <t>tumours of lymphoid origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the adrenal medulla </t>
+  </si>
+  <si>
+    <t>tumours of the extra-adrenal paraganglia</t>
+  </si>
+  <si>
+    <t>tumours of the broad ligament</t>
+  </si>
+  <si>
+    <t>tumours of other uterine ligaments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the collecting ducts </t>
+  </si>
+  <si>
+    <t>tumours of the rete testis</t>
+  </si>
+  <si>
+    <t>tumours of the colon</t>
+  </si>
+  <si>
+    <t>tumours of the rectum</t>
+  </si>
+  <si>
+    <t>tumours of the conjunctiva</t>
+  </si>
+  <si>
+    <t>tumours of the caruncle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the gallbladder </t>
+  </si>
+  <si>
+    <t>tumours of the extrahepatic bile ducts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the iris </t>
+  </si>
+  <si>
+    <t>tumours of the ciliary body neuroepithelium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the liver </t>
+  </si>
+  <si>
+    <t>tumours of the intrahepatic bile ducts</t>
+  </si>
+  <si>
+    <t>tumours of the middle ear</t>
+  </si>
+  <si>
+    <t>tumours of the inner ear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the optic disc </t>
+  </si>
+  <si>
+    <t>tumours of the optic nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the penis </t>
+  </si>
+  <si>
+    <t>tumours of the scrotum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the pleura </t>
+  </si>
+  <si>
+    <t>tumours of the pericardium</t>
+  </si>
+  <si>
+    <t>tumours of the retina</t>
+  </si>
+  <si>
+    <t>tumours of the neuroepithelium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumours of the small intestine </t>
+  </si>
+  <si>
+    <t>tumours of the ampulla</t>
+  </si>
+  <si>
+    <t>tumours with apocrine differentiation</t>
+  </si>
+  <si>
+    <t>tumours with eccrine differentiation</t>
+  </si>
+  <si>
+    <t>undifferentiated carcinomas of the ovary</t>
+  </si>
+  <si>
+    <t>dedifferentiated carcinomas of the ovary</t>
+  </si>
+  <si>
+    <t>undifferentiated carcinomas of the uterine corpus</t>
+  </si>
+  <si>
+    <t>dedifferentiated carcinomas of the uterine corpus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undifferentiated small round cell sarcomas of bone </t>
+  </si>
+  <si>
+    <t>undifferentiated small round cell sarcomas of soft tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undifferentiated small round cell sarcomas of soft tissue </t>
+  </si>
+  <si>
+    <t>undifferentiated small round cell sarcomas of bone</t>
+  </si>
+  <si>
+    <t>urachal neoplasms</t>
+  </si>
+  <si>
+    <t>diverticular neoplasms</t>
+  </si>
+  <si>
+    <t>urinary tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verruca plantaris </t>
+  </si>
+  <si>
+    <t>verruca palmaris</t>
+  </si>
+  <si>
+    <t>verrucous carcinoma of the oral cavity</t>
+  </si>
+  <si>
+    <t>verrucous carcinoma of the mobile tongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wolffian tumour of the broad ligament </t>
+  </si>
+  <si>
+    <t>wolffian tumour of other uterine ligaments</t>
+  </si>
+  <si>
+    <t>bartholin gland hyperplasia</t>
+  </si>
+  <si>
+    <t>bartholin gland adenoma</t>
+  </si>
+  <si>
+    <t>bartholin gland adenomyoma</t>
+  </si>
+  <si>
+    <t>benign fibroblastic neoplasms</t>
+  </si>
+  <si>
+    <t>myofibroblastic neoplasms</t>
+  </si>
+  <si>
+    <t>fibrohistiocytic neoplasms</t>
+  </si>
+  <si>
+    <t>benign myofibroblastic neoplasms</t>
+  </si>
+  <si>
+    <t>benign fibrohistiocytic neoplasms</t>
+  </si>
+  <si>
+    <t>central chondrosarcoma, grades 2</t>
+  </si>
+  <si>
+    <t>central chondrosarcoma, grades 3</t>
+  </si>
+  <si>
+    <t>conjunctival junctional naevi</t>
+  </si>
+  <si>
+    <t>compound naevi</t>
+  </si>
+  <si>
+    <t>subepithelial naevi</t>
+  </si>
+  <si>
+    <t>fibrohistiocytic tumours</t>
+  </si>
+  <si>
+    <t>gliomas</t>
+  </si>
+  <si>
+    <t>hypopharyngeal tumours</t>
+  </si>
+  <si>
+    <t>laryngeal tumours</t>
+  </si>
+  <si>
+    <t>tracheal tumours</t>
+  </si>
+  <si>
+    <t>parapharyngeal tumours</t>
+  </si>
+  <si>
+    <t>intermediate fibroblastic neoplasms</t>
+  </si>
+  <si>
+    <t>intermediate myofibroblastic neoplasms</t>
+  </si>
+  <si>
+    <t>intermediate fibrohistiocytic neoplasms</t>
+  </si>
+  <si>
+    <t>subepithelial conjunctival naevi</t>
+  </si>
+  <si>
+    <t>junctional naevi</t>
+  </si>
+  <si>
+    <t>dermal naevi</t>
+  </si>
+  <si>
+    <t>malignant fibroblastic neoplasms</t>
+  </si>
+  <si>
+    <t>meningioma of the sinonasal tract</t>
+  </si>
+  <si>
+    <t>meningioma of the ear</t>
+  </si>
+  <si>
+    <t>meningioma of the temporal bone</t>
+  </si>
+  <si>
+    <t>mesenchymal tumours unique to the hypopharynx</t>
+  </si>
+  <si>
+    <t>mesenchymal tumours unique to the larynx</t>
+  </si>
+  <si>
+    <t>mesenchymal tumours unique to the trachea</t>
+  </si>
+  <si>
+    <t>mesenchymal tumours unique to the parapharyngeal space</t>
+  </si>
+  <si>
+    <t>mixed teratoma, prepubertal-type</t>
+  </si>
+  <si>
+    <t>nasal tumours</t>
+  </si>
+  <si>
+    <t>paranasal tumours</t>
+  </si>
+  <si>
+    <t>skull base tumours</t>
+  </si>
+  <si>
+    <t>nodular fasciitis, proliferative myositis</t>
+  </si>
+  <si>
+    <t>proliferative fasciitis, proliferative myositis</t>
+  </si>
+  <si>
+    <t>nodular and proliferative fasciitis</t>
+  </si>
+  <si>
+    <t>proliferative fasciitis</t>
+  </si>
+  <si>
+    <t>naevoid melanomas</t>
+  </si>
+  <si>
+    <t>pituicytoma</t>
+  </si>
+  <si>
+    <t>granular cell tumour of the sellar region</t>
+  </si>
+  <si>
+    <t>spindle cell oncocytoma</t>
+  </si>
+  <si>
+    <t>reactive lesions</t>
+  </si>
+  <si>
+    <t>epithelial lesions</t>
+  </si>
+  <si>
+    <t>degenerative conjunctival lesions</t>
+  </si>
+  <si>
+    <t>rete cystadenoma</t>
+  </si>
+  <si>
+    <t>rete adenoma</t>
+  </si>
+  <si>
+    <t>rete adenocarcinoma</t>
+  </si>
+  <si>
+    <t>sebaceous hyperplasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary peripheral chondrosarcoma, grades 2 </t>
+  </si>
+  <si>
+    <t>secondary peripheral chondrosarcoma, grades 3</t>
+  </si>
+  <si>
+    <t>serous cystadenoma of the ovary</t>
+  </si>
+  <si>
+    <t>serous adenofibroma of the ovary</t>
+  </si>
+  <si>
+    <t>serous surface papilloma of the ovary</t>
+  </si>
+  <si>
+    <t>special-site naevi (of the breast)</t>
+  </si>
+  <si>
+    <t>special-site naevi (of the axilla)</t>
+  </si>
+  <si>
+    <t>special-site naevi (of the scalp)</t>
+  </si>
+  <si>
+    <t>special-site naevi (of the ear)</t>
+  </si>
+  <si>
+    <t>teratomas</t>
+  </si>
+  <si>
+    <t>choristomas</t>
+  </si>
+  <si>
+    <t>tumour-like lesions of the eyelid</t>
+  </si>
+  <si>
+    <t>hamartomas of the eyelid</t>
+  </si>
+  <si>
+    <t>verrucous carcinoma of the hypopharynx</t>
+  </si>
+  <si>
+    <t>verrucous carcinoma of the larynx</t>
+  </si>
+  <si>
+    <t>verrucous carcinoma of the trachea</t>
+  </si>
+  <si>
+    <t>verrucous carcinoma of the parapharyngeal space</t>
+  </si>
+  <si>
+    <t>high grade b-cell lymphoma with myc and bcl2 rearrangements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gangliocytoma </t>
+  </si>
+  <si>
+    <t>mixed gangliocytoma-pitnet/adenoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kshv/hhv8-associated b-cell lymphoid proliferations </t>
+  </si>
+  <si>
+    <t>kshv/hhv8-associated b-cell lymphomas</t>
+  </si>
+  <si>
+    <t>myelodysplastic neoplasm with sf3b1 mutation and thrombocytosis</t>
+  </si>
+  <si>
+    <t>myeloproliferative neoplasm with sf3b1 mutation and thrombocytosis</t>
+  </si>
+  <si>
+    <t>myeloid neoplasms with eosinophilia and defining gene rearrangement</t>
+  </si>
+  <si>
+    <t>lymphoid neoplasms with eosinophilia and defining gene rearrangement</t>
+  </si>
+  <si>
+    <t>nk-lymphoblastic leukaemia/lymphoma</t>
+  </si>
+  <si>
+    <t>nk-lymphoblastic leukaemia</t>
+  </si>
+  <si>
+    <t>nk-lymphoblastic lymphoma</t>
+  </si>
+  <si>
+    <t>nk/t-cell lymphomas</t>
   </si>
 </sst>
 </file>
@@ -8671,12 +9214,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8691,8 +9240,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -42519,13 +43069,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A40BD13-64D2-A54D-9025-021DFD7EBC52}">
-  <dimension ref="A1:B1611"/>
+  <dimension ref="A1:B1669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1328" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
-      <selection activeCell="B1340" sqref="B1340"/>
+    <sheetView tabSelected="1" topLeftCell="A1654" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+      <selection activeCell="B1664" sqref="B1664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -51270,7 +51823,7 @@
         <v>438</v>
       </c>
       <c r="B1340" t="s">
-        <v>2305</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
@@ -51278,2172 +51831,2452 @@
         <v>438</v>
       </c>
       <c r="B1341" t="s">
-        <v>2305</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1342" t="s">
-        <v>2306</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1343" t="s">
-        <v>2306</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1344" t="s">
-        <v>2306</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1345" t="s">
-        <v>2307</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1346" t="s">
-        <v>2307</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1347" t="s">
-        <v>2307</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B1348" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B1349" t="s">
-        <v>2308</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B1350" t="s">
-        <v>2308</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1351" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1352" t="s">
-        <v>2309</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1353" t="s">
-        <v>2309</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1354" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1355" t="s">
-        <v>2310</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1356" t="s">
-        <v>2310</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1357" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1358" t="s">
-        <v>2311</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1359" t="s">
-        <v>2311</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1360" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1361" t="s">
-        <v>2312</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1362" t="s">
-        <v>2312</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B1363" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1364">
-        <v>446</v>
-      </c>
-      <c r="B1364" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1365">
-        <v>446</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1366" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1367" t="s">
-        <v>2314</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1368" t="s">
-        <v>2314</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1369" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1370" t="s">
-        <v>2315</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1371" t="s">
-        <v>2315</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B1372" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B1373" t="s">
-        <v>2316</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B1374" t="s">
-        <v>2316</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1375" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1376" t="s">
-        <v>2317</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1377" t="s">
-        <v>2317</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1378" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1379" t="s">
-        <v>2318</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1380" t="s">
-        <v>2318</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B1381" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B1382" t="s">
-        <v>2319</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B1383" t="s">
-        <v>2319</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B1384" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1385">
-        <v>453</v>
-      </c>
-      <c r="B1385" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1386">
-        <v>453</v>
-      </c>
-      <c r="B1386" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B1387" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B1388" t="s">
-        <v>2321</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B1389" t="s">
-        <v>2321</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B1390" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B1391" t="s">
-        <v>2322</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B1392" t="s">
-        <v>2322</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B1393" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B1394" t="s">
-        <v>2323</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B1395" t="s">
-        <v>2323</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B1396" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397">
-        <v>457</v>
-      </c>
-      <c r="B1397" t="s">
-        <v>2324</v>
+        <v>455</v>
+      </c>
+      <c r="B1397" s="1" t="s">
+        <v>2908</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398">
-        <v>457</v>
-      </c>
-      <c r="B1398" t="s">
-        <v>2324</v>
+        <v>455</v>
+      </c>
+      <c r="B1398" s="1" t="s">
+        <v>2909</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399">
-        <v>458</v>
-      </c>
-      <c r="B1399" t="s">
-        <v>2325</v>
+        <v>455</v>
+      </c>
+      <c r="B1399" s="1" t="s">
+        <v>2910</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400">
-        <v>458</v>
-      </c>
-      <c r="B1400" t="s">
-        <v>2325</v>
+        <v>455</v>
+      </c>
+      <c r="B1400" s="1" t="s">
+        <v>2911</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401">
-        <v>458</v>
-      </c>
-      <c r="B1401" t="s">
-        <v>2325</v>
+        <v>455</v>
+      </c>
+      <c r="B1401" s="1" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402">
-        <v>459</v>
-      </c>
-      <c r="B1402" t="s">
-        <v>2326</v>
+        <v>455</v>
+      </c>
+      <c r="B1402" s="1" t="s">
+        <v>2912</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1403" t="s">
-        <v>2326</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1404" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1405">
-        <v>460</v>
-      </c>
-      <c r="B1405" t="s">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1406">
-        <v>460</v>
-      </c>
-      <c r="B1406" t="s">
-        <v>2327</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B1407" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B1408" t="s">
-        <v>2328</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B1409" t="s">
-        <v>2328</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B1410" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B1411" t="s">
-        <v>2329</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B1412" t="s">
-        <v>2329</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B1413" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B1414" t="s">
-        <v>2330</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B1415" t="s">
-        <v>2330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B1416" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B1417" t="s">
-        <v>2331</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B1418" t="s">
-        <v>2331</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B1419" t="s">
-        <v>2331</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B1420" t="s">
-        <v>2332</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B1421" t="s">
-        <v>2332</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B1422" t="s">
-        <v>2332</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B1423" t="s">
-        <v>2333</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B1424" t="s">
-        <v>2333</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B1425" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B1426" t="s">
-        <v>2334</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B1427" t="s">
-        <v>2334</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B1428" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B1429" t="s">
-        <v>2335</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B1430" t="s">
-        <v>2335</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B1431" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B1432" t="s">
-        <v>2336</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B1433" t="s">
-        <v>2336</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B1434" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B1435" t="s">
-        <v>2337</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B1436" t="s">
-        <v>2337</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B1437" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B1438" t="s">
-        <v>2338</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B1439" t="s">
-        <v>2338</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B1440" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B1441" t="s">
-        <v>2339</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B1442" t="s">
-        <v>2339</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B1443" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B1444" t="s">
-        <v>2340</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B1445" t="s">
-        <v>2340</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B1446" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B1447" t="s">
-        <v>2341</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B1448" t="s">
-        <v>2341</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B1449" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1450">
-        <v>475</v>
-      </c>
-      <c r="B1450" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1451">
-        <v>475</v>
-      </c>
-      <c r="B1451" t="s">
-        <v>2342</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B1452" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B1453" t="s">
-        <v>2343</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B1454" t="s">
-        <v>2343</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B1455" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B1456" t="s">
-        <v>2344</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B1457" t="s">
-        <v>2344</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B1458" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B1459" t="s">
-        <v>2345</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B1460" t="s">
-        <v>2345</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B1461" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B1462" t="s">
-        <v>2346</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B1463" t="s">
-        <v>2346</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B1464" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B1465" t="s">
-        <v>2347</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B1466" t="s">
-        <v>2347</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B1467" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B1468" t="s">
-        <v>2348</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B1469" t="s">
-        <v>2348</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B1470" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B1471" t="s">
-        <v>2349</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B1472" t="s">
-        <v>2349</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B1473" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B1474" t="s">
-        <v>2350</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B1475" t="s">
-        <v>2350</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1476">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B1476" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B1477" t="s">
-        <v>2351</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1478">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B1478" t="s">
-        <v>2351</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B1479" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B1480" t="s">
-        <v>2352</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B1481" t="s">
-        <v>2352</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B1482" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B1483" t="s">
-        <v>2353</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B1484" t="s">
-        <v>2353</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B1485" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B1486" t="s">
-        <v>2354</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B1487" t="s">
-        <v>2354</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B1488" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B1489" t="s">
-        <v>2355</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B1490" t="s">
-        <v>2355</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B1491" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1492">
-        <v>489</v>
-      </c>
-      <c r="B1492" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1493">
-        <v>489</v>
-      </c>
-      <c r="B1493" t="s">
-        <v>2356</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B1494" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B1495" t="s">
-        <v>2357</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B1496" t="s">
-        <v>2357</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B1497" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B1498" t="s">
-        <v>2358</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B1499" t="s">
-        <v>2358</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B1500" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B1501" t="s">
-        <v>2359</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B1502" t="s">
-        <v>2359</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B1503" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B1504" t="s">
-        <v>2360</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B1505" t="s">
-        <v>2360</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B1506" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B1507" t="s">
-        <v>2361</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B1508" t="s">
-        <v>2361</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B1509" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B1510" t="s">
-        <v>2362</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B1511" t="s">
-        <v>2362</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B1512" t="s">
-        <v>2362</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B1513" t="s">
-        <v>2363</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B1514" t="s">
-        <v>2363</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B1515" t="s">
-        <v>2363</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B1516" t="s">
-        <v>2364</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B1517" t="s">
-        <v>2364</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B1518" t="s">
-        <v>2364</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B1519" t="s">
-        <v>2365</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B1520" t="s">
-        <v>2365</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B1521" t="s">
-        <v>2365</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B1522" t="s">
-        <v>2366</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B1523" t="s">
-        <v>2366</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B1524" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1525">
-        <v>500</v>
-      </c>
-      <c r="B1525" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1526">
-        <v>500</v>
-      </c>
-      <c r="B1526" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B1527" t="s">
-        <v>2367</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B1528" t="s">
-        <v>2368</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B1529" t="s">
-        <v>2368</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B1530" t="s">
-        <v>2368</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B1531" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1532">
-        <v>502</v>
-      </c>
-      <c r="B1532" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1533">
-        <v>502</v>
-      </c>
-      <c r="B1533" t="s">
-        <v>2369</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B1534" t="s">
-        <v>2370</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B1535" t="s">
-        <v>2370</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B1536" t="s">
-        <v>2370</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B1537" t="s">
-        <v>2371</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B1538" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B1539" t="s">
-        <v>2371</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B1540" t="s">
-        <v>2372</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B1541" t="s">
-        <v>2372</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B1542" t="s">
-        <v>2372</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B1543" t="s">
-        <v>2373</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B1544" t="s">
-        <v>2373</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B1545" t="s">
-        <v>2373</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B1546" t="s">
-        <v>2374</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B1547" t="s">
-        <v>2374</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B1548" t="s">
-        <v>2374</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1549">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B1549" t="s">
-        <v>2375</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B1550" t="s">
-        <v>2375</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B1551" t="s">
-        <v>2375</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B1552" t="s">
-        <v>2376</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B1553" t="s">
-        <v>2376</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B1554" t="s">
-        <v>2376</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1555">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B1555" t="s">
-        <v>2377</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B1556" t="s">
-        <v>2377</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B1557" t="s">
-        <v>2377</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B1558" t="s">
-        <v>2378</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B1559" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1560">
-        <v>511</v>
-      </c>
-      <c r="B1560" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1561">
-        <v>512</v>
-      </c>
-      <c r="B1561" t="s">
-        <v>2379</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B1562" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1563">
-        <v>512</v>
-      </c>
-      <c r="B1563" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1564">
-        <v>513</v>
-      </c>
-      <c r="B1564" t="s">
-        <v>2380</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B1565" t="s">
-        <v>2380</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B1566" t="s">
-        <v>2380</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B1567" t="s">
-        <v>2381</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B1568" t="s">
-        <v>2381</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B1569" t="s">
-        <v>2381</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B1570" t="s">
-        <v>2382</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B1571" t="s">
-        <v>2382</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B1572" t="s">
-        <v>2382</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B1573" t="s">
-        <v>2383</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B1574" t="s">
-        <v>2383</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B1575" t="s">
-        <v>2383</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B1576" t="s">
-        <v>2384</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B1577" t="s">
-        <v>2384</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B1578" t="s">
-        <v>2384</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B1579" t="s">
-        <v>2385</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B1580" t="s">
-        <v>2385</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B1581" t="s">
-        <v>2385</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B1582" t="s">
-        <v>2386</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B1583" t="s">
-        <v>2386</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B1584" t="s">
-        <v>2386</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B1585" t="s">
-        <v>2387</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B1586" t="s">
-        <v>2387</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B1587" t="s">
-        <v>2387</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B1588" t="s">
-        <v>2388</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B1589" t="s">
-        <v>2388</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1590">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B1590" t="s">
-        <v>2388</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B1591" t="s">
-        <v>2389</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1592">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B1592" t="s">
-        <v>2389</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1593">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B1593" t="s">
-        <v>2389</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1594">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B1594" t="s">
-        <v>2390</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1595">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B1595" t="s">
-        <v>2390</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1596">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B1596" t="s">
-        <v>2390</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1597">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B1597" t="s">
-        <v>2391</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1598">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B1598" t="s">
-        <v>2391</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1599">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B1599" t="s">
-        <v>2391</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1600">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B1600" t="s">
-        <v>2392</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1601">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B1601" t="s">
-        <v>2392</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1602">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B1602" t="s">
-        <v>2392</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1603">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B1603" t="s">
-        <v>2393</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1604">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B1604" t="s">
-        <v>2393</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1605">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B1605" t="s">
-        <v>2393</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1606">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B1606" t="s">
-        <v>2394</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1607">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B1607" t="s">
-        <v>2394</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1608">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B1608" t="s">
-        <v>2394</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1609">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B1609" t="s">
-        <v>2395</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1610">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B1610" t="s">
-        <v>2395</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1611">
+        <v>513</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1612">
+        <v>514</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1613">
+        <v>514</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1614">
+        <v>514</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1615">
+        <v>515</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1616">
+        <v>515</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1617">
+        <v>515</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1618">
+        <v>515</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1619">
+        <v>516</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1620">
+        <v>516</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1621">
+        <v>516</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1622">
+        <v>516</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1623">
+        <v>516</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1624">
+        <v>517</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1625">
+        <v>517</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1626">
+        <v>517</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1627">
+        <v>517</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1628">
+        <v>518</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1629">
+        <v>518</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1630">
+        <v>518</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1631">
+        <v>518</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1632">
+        <v>519</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1633">
+        <v>519</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1634">
+        <v>519</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1635">
+        <v>519</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1636">
+        <v>519</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1637">
+        <v>520</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1640">
+        <v>521</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1641">
+        <v>521</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1643">
+        <v>522</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1644">
+        <v>522</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1645">
+        <v>522</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1648">
+        <v>523</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1649">
+        <v>523</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1650">
+        <v>523</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1651">
+        <v>524</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1652">
+        <v>524</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1653">
+        <v>524</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1654">
+        <v>525</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1655">
+        <v>525</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1656">
+        <v>525</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1657">
+        <v>526</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1658">
+        <v>526</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1659">
+        <v>526</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1660">
+        <v>526</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1661">
+        <v>526</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1662">
+        <v>526</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1663">
+        <v>526</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1664">
+        <v>527</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1665">
+        <v>527</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1666">
+        <v>527</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1667">
+        <v>527</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1668">
+        <v>527</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1669">
         <v>528</v>
       </c>
-      <c r="B1611" t="s">
+      <c r="B1669" t="s">
         <v>2395</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1611">
-    <sortCondition ref="A2:A1611"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1671">
+    <sortCondition ref="A2:A1671"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
